--- a/2.基于集成学习的空间负荷预测/基于集成学习的空间负荷预测结果.xlsx
+++ b/2.基于集成学习的空间负荷预测/基于集成学习的空间负荷预测结果.xlsx
@@ -8,9 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="113号用户" sheetId="1" r:id="rId1"/>
-    <sheet name="1008号用户" sheetId="2" r:id="rId2"/>
-    <sheet name="1003号用户" sheetId="3" r:id="rId3"/>
-    <sheet name="0号用户" sheetId="4" r:id="rId4"/>
+    <sheet name="1003号用户" sheetId="2" r:id="rId2"/>
+    <sheet name="1188号用户" sheetId="3" r:id="rId3"/>
+    <sheet name="34600号用户" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -3527,79 +3527,79 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.02871830332356135</v>
+        <v>0.004020791313405944</v>
       </c>
       <c r="C2">
-        <v>0.02871830332356135</v>
+        <v>0.004020791313405944</v>
       </c>
       <c r="D2">
-        <v>0.01762630740307897</v>
+        <v>0.003936491627956003</v>
       </c>
       <c r="E2">
-        <v>0.02993578231040107</v>
+        <v>0.004375441023644892</v>
       </c>
       <c r="F2">
-        <v>0.03052039444446564</v>
+        <v>0.005111466161906719</v>
       </c>
       <c r="G2">
-        <v>0.02993578231040107</v>
+        <v>0.004375441023644892</v>
       </c>
       <c r="H2">
-        <v>0.02651952642079597</v>
+        <v>0.003642289395049574</v>
       </c>
       <c r="I2">
-        <v>0.03280073620638959</v>
+        <v>0.004736152524529672</v>
       </c>
       <c r="J2">
-        <v>0.02672073245048523</v>
+        <v>0.005111353471875191</v>
       </c>
       <c r="K2">
-        <v>0.04276300715129533</v>
+        <v>0.006825529498811041</v>
       </c>
       <c r="L2">
-        <v>0.04617186975580169</v>
+        <v>0.007302797427712274</v>
       </c>
       <c r="M2">
-        <v>0.03715145068187206</v>
+        <v>0.006039866876171606</v>
       </c>
       <c r="N2">
-        <v>0.05346919063031783</v>
+        <v>0.008324480500448612</v>
       </c>
       <c r="O2">
-        <v>0.0321889278675612</v>
+        <v>0.005345074137215136</v>
       </c>
       <c r="P2">
-        <v>0.06310705322570395</v>
+        <v>0.009673858065227499</v>
       </c>
       <c r="Q2">
-        <v>0.02846990758716042</v>
+        <v>0.004824381662129123</v>
       </c>
       <c r="R2">
-        <v>0.09183110020992685</v>
+        <v>0.01369545353689568</v>
       </c>
       <c r="S2">
-        <v>0.0394823564494045</v>
+        <v>0.006976603980254321</v>
       </c>
       <c r="T2">
-        <v>0.04303573380964872</v>
+        <v>0.007495968829760913</v>
       </c>
       <c r="U2">
-        <v>0.03363290458595278</v>
+        <v>0.006121642804234204</v>
       </c>
       <c r="V2">
-        <v>0.0506424160947208</v>
+        <v>0.008607768393868957</v>
       </c>
       <c r="W2">
-        <v>0.02846000140271604</v>
+        <v>0.005365566595348449</v>
       </c>
       <c r="X2">
-        <v>0.06068886463809029</v>
+        <v>0.01007616640140402</v>
       </c>
       <c r="Y2">
-        <v>0.02458331759351953</v>
+        <v>0.004798946982786498</v>
       </c>
       <c r="Z2">
-        <v>0.09063063410495013</v>
+        <v>0.01445248251325316</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -3607,79 +3607,79 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02782742494623781</v>
+        <v>0.004040677516585663</v>
       </c>
       <c r="C3">
-        <v>0.02782742494623781</v>
+        <v>0.004040677516585663</v>
       </c>
       <c r="D3">
-        <v>0.01378307528815642</v>
+        <v>0.003768019982307827</v>
       </c>
       <c r="E3">
-        <v>0.03065121048351916</v>
+        <v>0.003945704905825828</v>
       </c>
       <c r="F3">
-        <v>0.0319160521030426</v>
+        <v>0.00419219583272934</v>
       </c>
       <c r="G3">
-        <v>0.03065121048351916</v>
+        <v>0.003945704905825828</v>
       </c>
       <c r="H3">
-        <v>0.02015027538306254</v>
+        <v>0.00409201318907449</v>
       </c>
       <c r="I3">
-        <v>0.02871312633043059</v>
+        <v>0.004091592776922055</v>
       </c>
       <c r="J3">
-        <v>0.02789977937936783</v>
+        <v>0.004171659238636494</v>
       </c>
       <c r="K3">
-        <v>0.04086256922325401</v>
+        <v>0.005491273654311042</v>
       </c>
       <c r="L3">
-        <v>0.04349782636566244</v>
+        <v>0.005873925815131662</v>
       </c>
       <c r="M3">
-        <v>0.03533047714394254</v>
+        <v>0.004687986964013901</v>
       </c>
       <c r="N3">
-        <v>0.04977291069103837</v>
+        <v>0.006785098595121629</v>
       </c>
       <c r="O3">
-        <v>0.03096713691237293</v>
+        <v>0.004054408729413339</v>
       </c>
       <c r="P3">
-        <v>0.05782060198548947</v>
+        <v>0.007953662532918074</v>
       </c>
       <c r="Q3">
-        <v>0.02789777194080324</v>
+        <v>0.003608721999333989</v>
       </c>
       <c r="R3">
-        <v>0.07809566380131611</v>
+        <v>0.01089770017150207</v>
       </c>
       <c r="S3">
-        <v>0.03775414354981477</v>
+        <v>0.005440203365858923</v>
       </c>
       <c r="T3">
-        <v>0.04065681318260372</v>
+        <v>0.005813861620440588</v>
       </c>
       <c r="U3">
-        <v>0.03166068290569184</v>
+        <v>0.004655797230580835</v>
       </c>
       <c r="V3">
-        <v>0.04756866114663653</v>
+        <v>0.006703618076704214</v>
       </c>
       <c r="W3">
-        <v>0.02685457310187657</v>
+        <v>0.004037110701347413</v>
       </c>
       <c r="X3">
-        <v>0.05643299121846929</v>
+        <v>0.007844715935468918</v>
       </c>
       <c r="Y3">
-        <v>0.02347374458554477</v>
+        <v>0.003601899450234872</v>
       </c>
       <c r="Z3">
-        <v>0.07876546317675889</v>
+        <v>0.0107195565298533</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -3687,79 +3687,79 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.02520761120167914</v>
+        <v>0.004239630403650389</v>
       </c>
       <c r="C4">
-        <v>0.02520761120167914</v>
+        <v>0.004239630403650389</v>
       </c>
       <c r="D4">
-        <v>0.01548421974749847</v>
+        <v>0.003871004494320086</v>
       </c>
       <c r="E4">
-        <v>0.02322033371392137</v>
+        <v>0.004340837644813012</v>
       </c>
       <c r="F4">
-        <v>0.02220289409160614</v>
+        <v>0.005212851334363222</v>
       </c>
       <c r="G4">
-        <v>0.02322033371392137</v>
+        <v>0.004340837644813012</v>
       </c>
       <c r="H4">
-        <v>0.01785957379724756</v>
+        <v>0.00362947806580509</v>
       </c>
       <c r="I4">
-        <v>0.02205197725419718</v>
+        <v>0.004421371563797434</v>
       </c>
       <c r="J4">
-        <v>0.01947975531220436</v>
+        <v>0.00527057982981205</v>
       </c>
       <c r="K4">
-        <v>0.0261251983945842</v>
+        <v>0.005872537825170683</v>
       </c>
       <c r="L4">
-        <v>0.02776369312269317</v>
+        <v>0.006148113801407928</v>
       </c>
       <c r="M4">
-        <v>0.02357670890209473</v>
+        <v>0.005443911191361676</v>
       </c>
       <c r="N4">
-        <v>0.0309549767008254</v>
+        <v>0.006684851010510008</v>
       </c>
       <c r="O4">
-        <v>0.01987371081656847</v>
+        <v>0.004821109485065502</v>
       </c>
       <c r="P4">
-        <v>0.03996669770542469</v>
+        <v>0.008200518879814855</v>
       </c>
       <c r="Q4">
-        <v>0.01748655003576972</v>
+        <v>0.004419616485839855</v>
       </c>
       <c r="R4">
-        <v>0.05596848929624886</v>
+        <v>0.01089183626005183</v>
       </c>
       <c r="S4">
-        <v>0.02309283923808757</v>
+        <v>0.005946014167344402</v>
       </c>
       <c r="T4">
-        <v>0.02460216092949229</v>
+        <v>0.006228168614257217</v>
       </c>
       <c r="U4">
-        <v>0.02074526349961038</v>
+        <v>0.005507155481453855</v>
       </c>
       <c r="V4">
-        <v>0.02754185517767441</v>
+        <v>0.006777718660090483</v>
       </c>
       <c r="W4">
-        <v>0.01733419647703571</v>
+        <v>0.004869486431430894</v>
       </c>
       <c r="X4">
-        <v>0.03584312448040039</v>
+        <v>0.008329568118110964</v>
       </c>
       <c r="Y4">
-        <v>0.01513523087432759</v>
+        <v>0.004458409106467147</v>
       </c>
       <c r="Z4">
-        <v>0.05058339232199606</v>
+        <v>0.01108513185503796</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -3767,79 +3767,79 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.02535013656390489</v>
+        <v>0.004493627236453708</v>
       </c>
       <c r="C5">
-        <v>0.02535013656390489</v>
+        <v>0.004493627236453708</v>
       </c>
       <c r="D5">
-        <v>0.008246751492306605</v>
+        <v>0.005566134128261647</v>
       </c>
       <c r="E5">
-        <v>0.0191964332672729</v>
+        <v>0.005430937075022974</v>
       </c>
       <c r="F5">
-        <v>0.01671455428004265</v>
+        <v>0.006012358702719212</v>
       </c>
       <c r="G5">
-        <v>0.0191964332672729</v>
+        <v>0.005430937075022974</v>
       </c>
       <c r="H5">
-        <v>0.01340354520733138</v>
+        <v>0.004485963443445631</v>
       </c>
       <c r="I5">
-        <v>0.01938897640320422</v>
+        <v>0.006295458234843858</v>
       </c>
       <c r="J5">
-        <v>0.014917166903615</v>
+        <v>0.006095576100051403</v>
       </c>
       <c r="K5">
-        <v>0.01956137461616606</v>
+        <v>0.006516993041372413</v>
       </c>
       <c r="L5">
-        <v>0.02137390938048506</v>
+        <v>0.006838287388778817</v>
       </c>
       <c r="M5">
-        <v>0.01700608085052473</v>
+        <v>0.006064035415937929</v>
       </c>
       <c r="N5">
-        <v>0.02458830669678785</v>
+        <v>0.007408079322361085</v>
       </c>
       <c r="O5">
-        <v>0.01355592726417765</v>
+        <v>0.005452452749056647</v>
       </c>
       <c r="P5">
-        <v>0.03214518240648706</v>
+        <v>0.008747629601547787</v>
       </c>
       <c r="Q5">
-        <v>0.01109189399016637</v>
+        <v>0.005015672181673394</v>
       </c>
       <c r="R5">
-        <v>0.04762904581971847</v>
+        <v>0.01149233711757341</v>
       </c>
       <c r="S5">
-        <v>0.01707292635952739</v>
+        <v>0.006705470333575818</v>
       </c>
       <c r="T5">
-        <v>0.01844547133813725</v>
+        <v>0.007093782334439917</v>
       </c>
       <c r="U5">
-        <v>0.0151379258861865</v>
+        <v>0.006158031876413562</v>
       </c>
       <c r="V5">
-        <v>0.02087957907642719</v>
+        <v>0.007782425155552755</v>
       </c>
       <c r="W5">
-        <v>0.01252529131851094</v>
+        <v>0.005418881340503017</v>
       </c>
       <c r="X5">
-        <v>0.02660203583340061</v>
+        <v>0.009401387497616926</v>
       </c>
       <c r="Y5">
-        <v>0.01065939800493223</v>
+        <v>0.004890994256810842</v>
       </c>
       <c r="Z5">
-        <v>0.03832721727304961</v>
+        <v>0.01271860386304059</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -3847,79 +3847,79 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01138078540329077</v>
+        <v>0.004751846571149535</v>
       </c>
       <c r="C6">
-        <v>0.01138078540329077</v>
+        <v>0.004751846571149535</v>
       </c>
       <c r="D6">
-        <v>0.007035164392838173</v>
+        <v>0.005666235653599185</v>
       </c>
       <c r="E6">
-        <v>0.008134005909880688</v>
+        <v>0.006082227846787448</v>
       </c>
       <c r="F6">
-        <v>0.01273623108863831</v>
+        <v>0.006392420269548893</v>
       </c>
       <c r="G6">
-        <v>0.008134005909880688</v>
+        <v>0.006082227846787448</v>
       </c>
       <c r="H6">
-        <v>0.003479924736744306</v>
+        <v>0.00546729439292839</v>
       </c>
       <c r="I6">
-        <v>0.007393203224207188</v>
+        <v>0.007252657253160552</v>
       </c>
       <c r="J6">
-        <v>0.01147659309208393</v>
+        <v>0.006516416557133198</v>
       </c>
       <c r="K6">
-        <v>0.01381285338778824</v>
+        <v>0.006841944955179066</v>
       </c>
       <c r="L6">
-        <v>0.01450366706176792</v>
+        <v>0.007130382042047811</v>
       </c>
       <c r="M6">
-        <v>0.01269070794702389</v>
+        <v>0.006373412883263774</v>
       </c>
       <c r="N6">
-        <v>0.0157532772990491</v>
+        <v>0.007652134795559973</v>
       </c>
       <c r="O6">
-        <v>0.01087433459665889</v>
+        <v>0.005615018170508392</v>
       </c>
       <c r="P6">
-        <v>0.01989360702876583</v>
+        <v>0.009380856578143984</v>
       </c>
       <c r="Q6">
-        <v>0.009622448202297039</v>
+        <v>0.005092315047682</v>
       </c>
       <c r="R6">
-        <v>0.02899482111577646</v>
+        <v>0.01318090828109185</v>
       </c>
       <c r="S6">
-        <v>0.01224607005115766</v>
+        <v>0.007091795311438557</v>
       </c>
       <c r="T6">
-        <v>0.01273980420988737</v>
+        <v>0.007460986541738514</v>
       </c>
       <c r="U6">
-        <v>0.01144405706844352</v>
+        <v>0.00649208764574538</v>
       </c>
       <c r="V6">
-        <v>0.01363291805879217</v>
+        <v>0.008128815159315702</v>
       </c>
       <c r="W6">
-        <v>0.0101458697252267</v>
+        <v>0.005521364081398211</v>
       </c>
       <c r="X6">
-        <v>0.01659206940880644</v>
+        <v>0.01034152964997673</v>
       </c>
       <c r="Y6">
-        <v>0.009251129075139924</v>
+        <v>0.004852319018251665</v>
       </c>
       <c r="Z6">
-        <v>0.02309683393493731</v>
+        <v>0.01520548725905212</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -3927,79 +3927,79 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.005668643729023738</v>
+        <v>0.005840857655968965</v>
       </c>
       <c r="C7">
-        <v>0.005668643729023738</v>
+        <v>0.005840857655968965</v>
       </c>
       <c r="D7">
-        <v>0.003041404616379759</v>
+        <v>0.00570098736258728</v>
       </c>
       <c r="E7">
-        <v>0.004342959888906353</v>
+        <v>0.005603188250496624</v>
       </c>
       <c r="F7">
-        <v>0.01143292523920536</v>
+        <v>0.006172558292746544</v>
       </c>
       <c r="G7">
-        <v>0.004342959888906353</v>
+        <v>0.005603188250496624</v>
       </c>
       <c r="H7">
-        <v>0.0001647687809442887</v>
+        <v>0.006144368932180115</v>
       </c>
       <c r="I7">
-        <v>0.004683234333564097</v>
+        <v>0.005994435607967411</v>
       </c>
       <c r="J7">
-        <v>0.01043872907757759</v>
+        <v>0.006312943529337645</v>
       </c>
       <c r="K7">
-        <v>0.01182236106338862</v>
+        <v>0.006573825213710924</v>
       </c>
       <c r="L7">
-        <v>0.01214263943407843</v>
+        <v>0.006903833671273134</v>
       </c>
       <c r="M7">
-        <v>0.01135243049825261</v>
+        <v>0.006089618114031151</v>
       </c>
       <c r="N7">
-        <v>0.01288919981319077</v>
+        <v>0.007673074624564163</v>
       </c>
       <c r="O7">
-        <v>0.01058432927296998</v>
+        <v>0.005298181901647443</v>
       </c>
       <c r="P7">
-        <v>0.0148097363085838</v>
+        <v>0.00965195719840623</v>
       </c>
       <c r="Q7">
-        <v>0.009935269565996829</v>
+        <v>0.00462940370003907</v>
       </c>
       <c r="R7">
-        <v>0.01792635663080071</v>
+        <v>0.01286326073765761</v>
       </c>
       <c r="S7">
-        <v>0.01073709042194495</v>
+        <v>0.006697882562146103</v>
       </c>
       <c r="T7">
-        <v>0.01098246765566813</v>
+        <v>0.007014462698299128</v>
       </c>
       <c r="U7">
-        <v>0.01037705904715465</v>
+        <v>0.006233378256179984</v>
       </c>
       <c r="V7">
-        <v>0.01155443547303703</v>
+        <v>0.007752402590889451</v>
       </c>
       <c r="W7">
-        <v>0.009788587982207903</v>
+        <v>0.005474146248237775</v>
       </c>
       <c r="X7">
-        <v>0.01302583028339834</v>
+        <v>0.009650762770157499</v>
       </c>
       <c r="Y7">
-        <v>0.009291319074928181</v>
+        <v>0.004832581193555983</v>
       </c>
       <c r="Z7">
-        <v>0.01541358963031879</v>
+        <v>0.0127313956702802</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -4007,79 +4007,79 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.006742479723492668</v>
+        <v>0.006167543801151136</v>
       </c>
       <c r="C8">
-        <v>0.006742479723492668</v>
+        <v>0.006167543801151136</v>
       </c>
       <c r="D8">
-        <v>0.002634643787024073</v>
+        <v>0.006245785583265486</v>
       </c>
       <c r="E8">
-        <v>0.006046080631484482</v>
+        <v>0.006352649725528308</v>
       </c>
       <c r="F8">
-        <v>0.01420136075466871</v>
+        <v>0.007008920889347792</v>
       </c>
       <c r="G8">
-        <v>0.006046080631484482</v>
+        <v>0.006352649725528308</v>
       </c>
       <c r="H8">
-        <v>0.0001647687809442887</v>
+        <v>0.005921517886238236</v>
       </c>
       <c r="I8">
-        <v>0.006245372089885467</v>
+        <v>0.006680985246738702</v>
       </c>
       <c r="J8">
-        <v>0.01266075298190117</v>
+        <v>0.007142764050513506</v>
       </c>
       <c r="K8">
-        <v>0.01457691687526647</v>
+        <v>0.007352453079071192</v>
       </c>
       <c r="L8">
-        <v>0.01496056397153316</v>
+        <v>0.007703386321356654</v>
       </c>
       <c r="M8">
-        <v>0.01408336735950686</v>
+        <v>0.006900988872826979</v>
       </c>
       <c r="N8">
-        <v>0.01594429176319063</v>
+        <v>0.008603230961944505</v>
       </c>
       <c r="O8">
-        <v>0.01349137763978427</v>
+        <v>0.006359478527085969</v>
       </c>
       <c r="P8">
-        <v>0.01791646708231202</v>
+        <v>0.01040723752378101</v>
       </c>
       <c r="Q8">
-        <v>0.01272273495130619</v>
+        <v>0.005656378533754817</v>
       </c>
       <c r="R8">
-        <v>0.02275891601972392</v>
+        <v>0.01483676748176727</v>
       </c>
       <c r="S8">
-        <v>0.01299751967307415</v>
+        <v>0.007496606640224694</v>
       </c>
       <c r="T8">
-        <v>0.01334154166100558</v>
+        <v>0.007858072409607215</v>
       </c>
       <c r="U8">
-        <v>0.01255494657084954</v>
+        <v>0.007031592680316073</v>
       </c>
       <c r="V8">
-        <v>0.01422366482513907</v>
+        <v>0.008784924004561693</v>
       </c>
       <c r="W8">
-        <v>0.01202410069140526</v>
+        <v>0.006473830034414749</v>
       </c>
       <c r="X8">
-        <v>0.01599214340984809</v>
+        <v>0.01064307404927852</v>
       </c>
       <c r="Y8">
-        <v>0.0113348474994161</v>
+        <v>0.005749627965704602</v>
       </c>
       <c r="Z8">
-        <v>0.02033443851937976</v>
+        <v>0.01520554708215245</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -4087,79 +4087,79 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.006899904742098494</v>
+        <v>0.006040040579401757</v>
       </c>
       <c r="C9">
-        <v>0.006899904742098494</v>
+        <v>0.006040040579401757</v>
       </c>
       <c r="D9">
-        <v>0.002426783433250151</v>
+        <v>0.00613320671766044</v>
       </c>
       <c r="E9">
-        <v>0.005892289642368178</v>
+        <v>0.006236980037520655</v>
       </c>
       <c r="F9">
-        <v>0.01368935778737068</v>
+        <v>0.006543530151247978</v>
       </c>
       <c r="G9">
-        <v>0.005892289642368178</v>
+        <v>0.006236980037520655</v>
       </c>
       <c r="H9">
-        <v>0.0001647687809442887</v>
+        <v>0.00559168394041413</v>
       </c>
       <c r="I9">
-        <v>0.006080538517988521</v>
+        <v>0.006562927191550334</v>
       </c>
       <c r="J9">
-        <v>0.012292655184865</v>
+        <v>0.006673240568488836</v>
       </c>
       <c r="K9">
-        <v>0.0143158691379524</v>
+        <v>0.007091965835856932</v>
       </c>
       <c r="L9">
-        <v>0.01470088382256145</v>
+        <v>0.007429000100187513</v>
       </c>
       <c r="M9">
-        <v>0.01374317704435828</v>
+        <v>0.006590642467766641</v>
       </c>
       <c r="N9">
-        <v>0.0156717004197746</v>
+        <v>0.008278833809709247</v>
       </c>
       <c r="O9">
-        <v>0.0128972487229771</v>
+        <v>0.005850133492732067</v>
       </c>
       <c r="P9">
-        <v>0.01772718204244552</v>
+        <v>0.01007816189831283</v>
       </c>
       <c r="Q9">
-        <v>0.01211479952522322</v>
+        <v>0.005165192891027984</v>
       </c>
       <c r="R9">
-        <v>0.02312428753171436</v>
+        <v>0.01480268163952037</v>
       </c>
       <c r="S9">
-        <v>0.01282767508439132</v>
+        <v>0.007239558355894963</v>
       </c>
       <c r="T9">
-        <v>0.01315646484643543</v>
+        <v>0.007587581841988576</v>
       </c>
       <c r="U9">
-        <v>0.01233861504407482</v>
+        <v>0.006721889012780805</v>
       </c>
       <c r="V9">
-        <v>0.01398550999911654</v>
+        <v>0.008465124933267636</v>
       </c>
       <c r="W9">
-        <v>0.01161622033392056</v>
+        <v>0.005957235260180857</v>
       </c>
       <c r="X9">
-        <v>0.01574082308357783</v>
+        <v>0.01032312128644483</v>
       </c>
       <c r="Y9">
-        <v>0.01094803468847608</v>
+        <v>0.005249961723926093</v>
       </c>
       <c r="Z9">
-        <v>0.02034977204183771</v>
+        <v>0.01520168707179295</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -4167,79 +4167,79 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.005932763668071019</v>
+        <v>0.005682414156091043</v>
       </c>
       <c r="C10">
-        <v>0.005932763668071019</v>
+        <v>0.005682414156091043</v>
       </c>
       <c r="D10">
-        <v>0.004454133598942019</v>
+        <v>0.005242470725747556</v>
       </c>
       <c r="E10">
-        <v>0.006047714329811565</v>
+        <v>0.005667319595213762</v>
       </c>
       <c r="F10">
-        <v>0.01316110324114561</v>
+        <v>0.006153453607112169</v>
       </c>
       <c r="G10">
-        <v>0.006047714329811565</v>
+        <v>0.005667319595213762</v>
       </c>
       <c r="H10">
-        <v>0.0001647687809442887</v>
+        <v>0.005465133204479042</v>
       </c>
       <c r="I10">
-        <v>0.00624188718730594</v>
+        <v>0.007113268655906307</v>
       </c>
       <c r="J10">
-        <v>0.01176849100738764</v>
+        <v>0.006285644602030516</v>
       </c>
       <c r="K10">
-        <v>0.0139406683871294</v>
+        <v>0.006900122827221824</v>
       </c>
       <c r="L10">
-        <v>0.01428180229804345</v>
+        <v>0.007226861641197024</v>
       </c>
       <c r="M10">
-        <v>0.01340315999880223</v>
+        <v>0.006385296104680032</v>
       </c>
       <c r="N10">
-        <v>0.01503941621845603</v>
+        <v>0.00795250592892977</v>
       </c>
       <c r="O10">
-        <v>0.01273335098067708</v>
+        <v>0.005743751546457425</v>
       </c>
       <c r="P10">
-        <v>0.01665431448890479</v>
+        <v>0.009499259062217581</v>
       </c>
       <c r="Q10">
-        <v>0.01206354196255194</v>
+        <v>0.005102206988234817</v>
       </c>
       <c r="R10">
-        <v>0.02146222616550901</v>
+        <v>0.01410428749431326</v>
       </c>
       <c r="S10">
-        <v>0.01256316067032412</v>
+        <v>0.007030330396840898</v>
       </c>
       <c r="T10">
-        <v>0.01291090424428825</v>
+        <v>0.007356201273565653</v>
       </c>
       <c r="U10">
-        <v>0.01201523775204326</v>
+        <v>0.006516871241514587</v>
       </c>
       <c r="V10">
-        <v>0.0136831973642051</v>
+        <v>0.008079917985874371</v>
       </c>
       <c r="W10">
-        <v>0.01133245080420761</v>
+        <v>0.005877030859215024</v>
       </c>
       <c r="X10">
-        <v>0.01532938520477963</v>
+        <v>0.009622562379691387</v>
       </c>
       <c r="Y10">
-        <v>0.01064966385637196</v>
+        <v>0.005237190476915461</v>
       </c>
       <c r="Z10">
-        <v>0.02023045289765838</v>
+        <v>0.01421535817965211</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -4247,79 +4247,79 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.01063462037996463</v>
+        <v>0.004663276822382631</v>
       </c>
       <c r="C11">
-        <v>0.01063462037996463</v>
+        <v>0.004663276822382631</v>
       </c>
       <c r="D11">
-        <v>0.009564567325269875</v>
+        <v>0.004956088903323976</v>
       </c>
       <c r="E11">
-        <v>0.007205738972808243</v>
+        <v>0.005143430756551256</v>
       </c>
       <c r="F11">
-        <v>0.01267048716545105</v>
+        <v>0.005973987281322479</v>
       </c>
       <c r="G11">
-        <v>0.007205738972808243</v>
+        <v>0.005143430756551256</v>
       </c>
       <c r="H11">
-        <v>0.009075175149686658</v>
+        <v>0.005126495778484453</v>
       </c>
       <c r="I11">
-        <v>0.006921107512317832</v>
+        <v>0.005815683633409027</v>
       </c>
       <c r="J11">
-        <v>0.01128115318715572</v>
+        <v>0.00610392726957798</v>
       </c>
       <c r="K11">
-        <v>0.01392643583232356</v>
+        <v>0.006524720274045294</v>
       </c>
       <c r="L11">
-        <v>0.01461236884683121</v>
+        <v>0.00682550162908894</v>
       </c>
       <c r="M11">
-        <v>0.01277683336924951</v>
+        <v>0.006020620049545787</v>
       </c>
       <c r="N11">
-        <v>0.01612142147874802</v>
+        <v>0.007487220610184963</v>
       </c>
       <c r="O11">
-        <v>0.01088706132773001</v>
+        <v>0.005191955758208485</v>
       </c>
       <c r="P11">
-        <v>0.01872903039591506</v>
+        <v>0.008630656087033058</v>
       </c>
       <c r="Q11">
-        <v>0.009732141554465976</v>
+        <v>0.004685523895297787</v>
       </c>
       <c r="R11">
-        <v>0.02724736132026579</v>
+        <v>0.01236594082176113</v>
       </c>
       <c r="S11">
-        <v>0.01213215095984349</v>
+        <v>0.00671136644192605</v>
       </c>
       <c r="T11">
-        <v>0.01259692112358957</v>
+        <v>0.00704311772572357</v>
       </c>
       <c r="U11">
-        <v>0.011353210576883</v>
+        <v>0.00615536157714292</v>
       </c>
       <c r="V11">
-        <v>0.01361941548383095</v>
+        <v>0.007772970550078112</v>
       </c>
       <c r="W11">
-        <v>0.01007275076141512</v>
+        <v>0.005241373931703863</v>
       </c>
       <c r="X11">
-        <v>0.01538626267996333</v>
+        <v>0.009034139771584342</v>
       </c>
       <c r="Y11">
-        <v>0.009290207508968232</v>
+        <v>0.004682797351542458</v>
       </c>
       <c r="Z11">
-        <v>0.0211580595971821</v>
+        <v>0.01315402780758144</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -4327,79 +4327,79 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.02033751048762323</v>
+        <v>0.003951765072334251</v>
       </c>
       <c r="C12">
-        <v>0.02033751048762323</v>
+        <v>0.003951765072334251</v>
       </c>
       <c r="D12">
-        <v>0.01175226099242776</v>
+        <v>0.003878785054041262</v>
       </c>
       <c r="E12">
-        <v>0.01621910797711685</v>
+        <v>0.003949807221917346</v>
       </c>
       <c r="F12">
-        <v>0.01865794695913792</v>
+        <v>0.004786151926964521</v>
       </c>
       <c r="G12">
-        <v>0.01621910797711685</v>
+        <v>0.003949807221917346</v>
       </c>
       <c r="H12">
-        <v>0.01800216698309886</v>
+        <v>0.003623452942840579</v>
       </c>
       <c r="I12">
-        <v>0.01800848961660474</v>
+        <v>0.003858484552188983</v>
       </c>
       <c r="J12">
-        <v>0.01655174978077412</v>
+        <v>0.004840183071792126</v>
       </c>
       <c r="K12">
-        <v>0.02150316467635385</v>
+        <v>0.005339003860583587</v>
       </c>
       <c r="L12">
-        <v>0.0227457865671475</v>
+        <v>0.005580456706503183</v>
       </c>
       <c r="M12">
-        <v>0.01938399608354375</v>
+        <v>0.004927229940046404</v>
       </c>
       <c r="N12">
-        <v>0.02493613644666428</v>
+        <v>0.006006061804793535</v>
       </c>
       <c r="O12">
-        <v>0.01546089031048166</v>
+        <v>0.00416493445759321</v>
       </c>
       <c r="P12">
-        <v>0.03228001148374422</v>
+        <v>0.007433044172413276</v>
       </c>
       <c r="Q12">
-        <v>0.01265634761423872</v>
+        <v>0.003619986054118377</v>
       </c>
       <c r="R12">
-        <v>0.04464115035812025</v>
+        <v>0.009834926983377769</v>
       </c>
       <c r="S12">
-        <v>0.01882080298677073</v>
+        <v>0.005392761102137867</v>
       </c>
       <c r="T12">
-        <v>0.01981179048417246</v>
+        <v>0.00563409432339699</v>
       </c>
       <c r="U12">
-        <v>0.01713077193555534</v>
+        <v>0.004981191189614124</v>
       </c>
       <c r="V12">
-        <v>0.02155858841330775</v>
+        <v>0.006059488561197441</v>
       </c>
       <c r="W12">
-        <v>0.01400210600676984</v>
+        <v>0.004219273376506352</v>
       </c>
       <c r="X12">
-        <v>0.027415308303844</v>
+        <v>0.007485763949031637</v>
       </c>
       <c r="Y12">
-        <v>0.01176549101672567</v>
+        <v>0.00367459496060401</v>
       </c>
       <c r="Z12">
-        <v>0.03727328213233454</v>
+        <v>0.009886456778512735</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -4407,79 +4407,79 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.02856564589569054</v>
+        <v>0.003998590650911898</v>
       </c>
       <c r="C13">
-        <v>0.02856564589569054</v>
+        <v>0.003998590650911898</v>
       </c>
       <c r="D13">
-        <v>0.01618074012448447</v>
+        <v>0.003886564032118275</v>
       </c>
       <c r="E13">
-        <v>0.02547883316724837</v>
+        <v>0.004818093348548237</v>
       </c>
       <c r="F13">
-        <v>0.02659129723906517</v>
+        <v>0.005131336860358715</v>
       </c>
       <c r="G13">
-        <v>0.02547883316724837</v>
+        <v>0.004818093348548237</v>
       </c>
       <c r="H13">
-        <v>0.01880661676288607</v>
+        <v>0.003625882485786098</v>
       </c>
       <c r="I13">
-        <v>0.0244715398617508</v>
+        <v>0.005871218014762226</v>
       </c>
       <c r="J13">
-        <v>0.02330578304827213</v>
+        <v>0.005152393132448196</v>
       </c>
       <c r="K13">
-        <v>0.03470965380261638</v>
+        <v>0.006267736323347311</v>
       </c>
       <c r="L13">
-        <v>0.0367635237425163</v>
+        <v>0.006555234991147844</v>
       </c>
       <c r="M13">
-        <v>0.03126178034300691</v>
+        <v>0.005785106431782298</v>
       </c>
       <c r="N13">
-        <v>0.04173965925754505</v>
+        <v>0.007251789482536621</v>
       </c>
       <c r="O13">
-        <v>0.02736542624283515</v>
+        <v>0.005239698666997975</v>
       </c>
       <c r="P13">
-        <v>0.05140627382864567</v>
+        <v>0.008604912558805057</v>
       </c>
       <c r="Q13">
-        <v>0.02350335091773822</v>
+        <v>0.004699089210994746</v>
       </c>
       <c r="R13">
-        <v>0.08929003341550627</v>
+        <v>0.01390784348004383</v>
       </c>
       <c r="S13">
-        <v>0.03054686743440051</v>
+        <v>0.006521695262104924</v>
       </c>
       <c r="T13">
-        <v>0.03237879553912547</v>
+        <v>0.006868116173865504</v>
       </c>
       <c r="U13">
-        <v>0.02747157227111398</v>
+        <v>0.005940151394935216</v>
       </c>
       <c r="V13">
-        <v>0.03681720827685965</v>
+        <v>0.007707428035182515</v>
       </c>
       <c r="W13">
-        <v>0.02399625942710168</v>
+        <v>0.005282963462193309</v>
       </c>
       <c r="X13">
-        <v>0.04543924542065554</v>
+        <v>0.009337870824331058</v>
       </c>
       <c r="Y13">
-        <v>0.02055152118289008</v>
+        <v>0.004631557241469659</v>
       </c>
       <c r="Z13">
-        <v>0.0792292739670566</v>
+        <v>0.01572762622317503</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -6517,79 +6517,79 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.004020791313405944</v>
+        <v>0.05444851379165683</v>
       </c>
       <c r="C2">
-        <v>0.004020791313405944</v>
+        <v>0.05901998718172299</v>
       </c>
       <c r="D2">
-        <v>0.003936491627956003</v>
+        <v>0.04181011543166448</v>
       </c>
       <c r="E2">
-        <v>0.004375441023644892</v>
+        <v>0.04612139933315536</v>
       </c>
       <c r="F2">
-        <v>0.005111466161906719</v>
+        <v>0.05383732914924622</v>
       </c>
       <c r="G2">
-        <v>0.004375441023644892</v>
+        <v>0.05710633186628408</v>
       </c>
       <c r="H2">
-        <v>0.003642289395049574</v>
+        <v>0.04628905429322985</v>
       </c>
       <c r="I2">
-        <v>0.004736152524529672</v>
+        <v>0.04399437941166405</v>
       </c>
       <c r="J2">
-        <v>0.005111353471875191</v>
+        <v>0.05032796040177345</v>
       </c>
       <c r="K2">
-        <v>0.006825529498811041</v>
+        <v>0.07704873057862097</v>
       </c>
       <c r="L2">
-        <v>0.007302797427712274</v>
+        <v>0.08351176916568992</v>
       </c>
       <c r="M2">
-        <v>0.006039866876171606</v>
+        <v>0.06640949098373239</v>
       </c>
       <c r="N2">
-        <v>0.008324480500448612</v>
+        <v>0.0973471365201484</v>
       </c>
       <c r="O2">
-        <v>0.005345074137215136</v>
+        <v>0.05700078780053514</v>
       </c>
       <c r="P2">
-        <v>0.009673858065227499</v>
+        <v>0.1156200577486264</v>
       </c>
       <c r="Q2">
-        <v>0.004824381662129123</v>
+        <v>0.04994970526451635</v>
       </c>
       <c r="R2">
-        <v>0.01369545353689568</v>
+        <v>0.1700794612430356</v>
       </c>
       <c r="S2">
-        <v>0.006976603980254321</v>
+        <v>0.06998951293749034</v>
       </c>
       <c r="T2">
-        <v>0.007495968829760913</v>
+        <v>0.07546412303833527</v>
       </c>
       <c r="U2">
-        <v>0.006121642804234204</v>
+        <v>0.06097739150779277</v>
       </c>
       <c r="V2">
-        <v>0.008607768393868957</v>
+        <v>0.08718357060888876</v>
       </c>
       <c r="W2">
-        <v>0.005365566595348449</v>
+        <v>0.0530076137030244</v>
       </c>
       <c r="X2">
-        <v>0.01007616640140402</v>
+        <v>0.102661912225094</v>
       </c>
       <c r="Y2">
-        <v>0.004798946982786498</v>
+        <v>0.04703489248938145</v>
       </c>
       <c r="Z2">
-        <v>0.01445248251325316</v>
+        <v>0.1487925358381109</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -6597,79 +6597,79 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.004040677516585663</v>
+        <v>0.04485552907540933</v>
       </c>
       <c r="C3">
-        <v>0.004040677516585663</v>
+        <v>0.0534205078083147</v>
       </c>
       <c r="D3">
-        <v>0.003768019982307827</v>
+        <v>0.04246700774931946</v>
       </c>
       <c r="E3">
-        <v>0.003945704905825828</v>
+        <v>0.04575630457407262</v>
       </c>
       <c r="F3">
-        <v>0.00419219583272934</v>
+        <v>0.05097044259309769</v>
       </c>
       <c r="G3">
-        <v>0.003945704905825828</v>
+        <v>0.05560949122676081</v>
       </c>
       <c r="H3">
-        <v>0.00409201318907449</v>
+        <v>0.04560478044504577</v>
       </c>
       <c r="I3">
-        <v>0.004091592776922055</v>
+        <v>0.04296949149012321</v>
       </c>
       <c r="J3">
-        <v>0.004171659238636494</v>
+        <v>0.0473138615489006</v>
       </c>
       <c r="K3">
-        <v>0.005491273654311042</v>
+        <v>0.06539149519083526</v>
       </c>
       <c r="L3">
-        <v>0.005873925815131662</v>
+        <v>0.06963931379427606</v>
       </c>
       <c r="M3">
-        <v>0.004687986964013901</v>
+        <v>0.05647421601064487</v>
       </c>
       <c r="N3">
-        <v>0.006785098595121629</v>
+        <v>0.07975423560077974</v>
       </c>
       <c r="O3">
-        <v>0.004054408729413339</v>
+        <v>0.04944086905162146</v>
       </c>
       <c r="P3">
-        <v>0.007953662532918074</v>
+        <v>0.09272645460938669</v>
       </c>
       <c r="Q3">
-        <v>0.003608721999333989</v>
+        <v>0.04449330419460435</v>
       </c>
       <c r="R3">
-        <v>0.01089770017150207</v>
+        <v>0.1254081930937264</v>
       </c>
       <c r="S3">
-        <v>0.005440203365858923</v>
+        <v>0.0620245134694583</v>
       </c>
       <c r="T3">
-        <v>0.005813861620440588</v>
+        <v>0.0663576355126225</v>
       </c>
       <c r="U3">
-        <v>0.004655797230580835</v>
+        <v>0.05292816012013365</v>
       </c>
       <c r="V3">
-        <v>0.006703618076704214</v>
+        <v>0.07667568219407472</v>
       </c>
       <c r="W3">
-        <v>0.004037110701347413</v>
+        <v>0.04575357156291986</v>
       </c>
       <c r="X3">
-        <v>0.007844715935468918</v>
+        <v>0.08990840547689508</v>
       </c>
       <c r="Y3">
-        <v>0.003601899450234872</v>
+        <v>0.04070665116840021</v>
       </c>
       <c r="Z3">
-        <v>0.0107195565298533</v>
+        <v>0.1232464489895607</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -6677,79 +6677,79 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.004239630403650389</v>
+        <v>0.03883042829564629</v>
       </c>
       <c r="C4">
-        <v>0.004239630403650389</v>
+        <v>0.04597336155816294</v>
       </c>
       <c r="D4">
-        <v>0.003871004494320086</v>
+        <v>0.04147668335305164</v>
       </c>
       <c r="E4">
-        <v>0.004340837644813012</v>
+        <v>0.04064952329379252</v>
       </c>
       <c r="F4">
-        <v>0.005212851334363222</v>
+        <v>0.04747049883008003</v>
       </c>
       <c r="G4">
-        <v>0.004340837644813012</v>
+        <v>0.05525945609498215</v>
       </c>
       <c r="H4">
-        <v>0.00362947806580509</v>
+        <v>0.04557016973761063</v>
       </c>
       <c r="I4">
-        <v>0.004421371563797434</v>
+        <v>0.03932890784858102</v>
       </c>
       <c r="J4">
-        <v>0.00527057982981205</v>
+        <v>0.04450231790542603</v>
       </c>
       <c r="K4">
-        <v>0.005872537825170683</v>
+        <v>0.05351251347287765</v>
       </c>
       <c r="L4">
-        <v>0.006148113801407928</v>
+        <v>0.05603649131209439</v>
       </c>
       <c r="M4">
-        <v>0.005443911191361676</v>
+        <v>0.04958675717218824</v>
       </c>
       <c r="N4">
-        <v>0.006684851010510008</v>
+        <v>0.06095242353432266</v>
       </c>
       <c r="O4">
-        <v>0.004821109485065502</v>
+        <v>0.04388256725555843</v>
       </c>
       <c r="P4">
-        <v>0.008200518879814855</v>
+        <v>0.07483430165001467</v>
       </c>
       <c r="Q4">
-        <v>0.004419616485839855</v>
+        <v>0.04020532569596114</v>
       </c>
       <c r="R4">
-        <v>0.01089183626005183</v>
+        <v>0.09948385753208824</v>
       </c>
       <c r="S4">
-        <v>0.005946014167344402</v>
+        <v>0.05082738372993497</v>
       </c>
       <c r="T4">
-        <v>0.006228168614257217</v>
+        <v>0.05346960274403119</v>
       </c>
       <c r="U4">
-        <v>0.005507155481453855</v>
+        <v>0.046717716924933</v>
       </c>
       <c r="V4">
-        <v>0.006777718660090483</v>
+        <v>0.05861583239302476</v>
       </c>
       <c r="W4">
-        <v>0.004869486431430894</v>
+        <v>0.04074630195307553</v>
       </c>
       <c r="X4">
-        <v>0.008329568118110964</v>
+        <v>0.07314803697055398</v>
       </c>
       <c r="Y4">
-        <v>0.004458409106467147</v>
+        <v>0.0368967920971538</v>
       </c>
       <c r="Z4">
-        <v>0.01108513185503796</v>
+        <v>0.09895235435745064</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -6757,79 +6757,79 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004493627236453708</v>
+        <v>0.03984725806935365</v>
       </c>
       <c r="C5">
-        <v>0.004493627236453708</v>
+        <v>0.04282643391965708</v>
       </c>
       <c r="D5">
-        <v>0.005566134128261647</v>
+        <v>0.03747816662234172</v>
       </c>
       <c r="E5">
-        <v>0.005430937075022974</v>
+        <v>0.0407363784402143</v>
       </c>
       <c r="F5">
-        <v>0.006012358702719212</v>
+        <v>0.04608429595828056</v>
       </c>
       <c r="G5">
-        <v>0.005430937075022974</v>
+        <v>0.042725963706007</v>
       </c>
       <c r="H5">
-        <v>0.004485963443445631</v>
+        <v>0.03595103967501677</v>
       </c>
       <c r="I5">
-        <v>0.006295458234843858</v>
+        <v>0.03907149997742582</v>
       </c>
       <c r="J5">
-        <v>0.006095576100051403</v>
+        <v>0.04324264824390411</v>
       </c>
       <c r="K5">
-        <v>0.006516993041372413</v>
+        <v>0.0505591430394641</v>
       </c>
       <c r="L5">
-        <v>0.006838287388778817</v>
+        <v>0.05340822199142257</v>
       </c>
       <c r="M5">
-        <v>0.006064035415937929</v>
+        <v>0.04654253942607369</v>
       </c>
       <c r="N5">
-        <v>0.007408079322361085</v>
+        <v>0.05846085431461606</v>
       </c>
       <c r="O5">
-        <v>0.005452452749056647</v>
+        <v>0.04111932760283526</v>
       </c>
       <c r="P5">
-        <v>0.008747629601547787</v>
+        <v>0.07033932194508907</v>
       </c>
       <c r="Q5">
-        <v>0.005015672181673394</v>
+        <v>0.03724617411849451</v>
       </c>
       <c r="R5">
-        <v>0.01149233711757341</v>
+        <v>0.0946780271738476</v>
       </c>
       <c r="S5">
-        <v>0.006705470333575818</v>
+        <v>0.04781734354273519</v>
       </c>
       <c r="T5">
-        <v>0.007093782334439917</v>
+        <v>0.05072999460121019</v>
       </c>
       <c r="U5">
-        <v>0.006158031876413562</v>
+        <v>0.04371111659596204</v>
       </c>
       <c r="V5">
-        <v>0.007782425155552755</v>
+        <v>0.0558953673874288</v>
       </c>
       <c r="W5">
-        <v>0.005418881340503017</v>
+        <v>0.03816689549024949</v>
       </c>
       <c r="X5">
-        <v>0.009401387497616926</v>
+        <v>0.06803888180045534</v>
       </c>
       <c r="Y5">
-        <v>0.004890994256810842</v>
+        <v>0.03420731950586109</v>
       </c>
       <c r="Z5">
-        <v>0.01271860386304059</v>
+        <v>0.09292066175173549</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -6837,79 +6837,79 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.004751846571149535</v>
+        <v>0.04067848842290245</v>
       </c>
       <c r="C6">
-        <v>0.004751846571149535</v>
+        <v>0.04333083067434954</v>
       </c>
       <c r="D6">
-        <v>0.005666235653599185</v>
+        <v>0.03842583603283757</v>
       </c>
       <c r="E6">
-        <v>0.006082227846787448</v>
+        <v>0.04079675256994322</v>
       </c>
       <c r="F6">
-        <v>0.006392420269548893</v>
+        <v>0.0454743318259716</v>
       </c>
       <c r="G6">
-        <v>0.006082227846787448</v>
+        <v>0.04052445560535595</v>
       </c>
       <c r="H6">
-        <v>0.00546729439292839</v>
+        <v>0.03834643529972115</v>
       </c>
       <c r="I6">
-        <v>0.007252657253160552</v>
+        <v>0.04061759592402142</v>
       </c>
       <c r="J6">
-        <v>0.006516416557133198</v>
+        <v>0.04254357144236565</v>
       </c>
       <c r="K6">
-        <v>0.006841944955179066</v>
+        <v>0.04932251683077327</v>
       </c>
       <c r="L6">
-        <v>0.007130382042047811</v>
+        <v>0.05179170107804318</v>
       </c>
       <c r="M6">
-        <v>0.006373412883263774</v>
+        <v>0.04531161787227553</v>
       </c>
       <c r="N6">
-        <v>0.007652134795559973</v>
+        <v>0.05625819910687738</v>
       </c>
       <c r="O6">
-        <v>0.005615018170508392</v>
+        <v>0.03881933111998102</v>
       </c>
       <c r="P6">
-        <v>0.009380856578143984</v>
+        <v>0.07105703319512766</v>
       </c>
       <c r="Q6">
-        <v>0.005092315047682</v>
+        <v>0.03434469739346224</v>
       </c>
       <c r="R6">
-        <v>0.01318090828109185</v>
+        <v>0.1035876203869192</v>
       </c>
       <c r="S6">
-        <v>0.007091795311438557</v>
+        <v>0.04640294423547735</v>
       </c>
       <c r="T6">
-        <v>0.007460986541738514</v>
+        <v>0.04887930711647263</v>
       </c>
       <c r="U6">
-        <v>0.00649208764574538</v>
+        <v>0.0423803844320814</v>
       </c>
       <c r="V6">
-        <v>0.008128815159315702</v>
+        <v>0.0533587905486519</v>
       </c>
       <c r="W6">
-        <v>0.005521364081398211</v>
+        <v>0.03586922272191918</v>
       </c>
       <c r="X6">
-        <v>0.01034152964997673</v>
+        <v>0.06820064913359561</v>
       </c>
       <c r="Y6">
-        <v>0.004852319018251665</v>
+        <v>0.03138157993922592</v>
       </c>
       <c r="Z6">
-        <v>0.01520548725905212</v>
+        <v>0.1008258121637756</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -6917,79 +6917,79 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.005840857655968965</v>
+        <v>0.04916291954745512</v>
       </c>
       <c r="C7">
-        <v>0.005840857655968965</v>
+        <v>0.04639397616773827</v>
       </c>
       <c r="D7">
-        <v>0.00570098736258728</v>
+        <v>0.03967386578799497</v>
       </c>
       <c r="E7">
-        <v>0.005603188250496624</v>
+        <v>0.04530335693309644</v>
       </c>
       <c r="F7">
-        <v>0.006172558292746544</v>
+        <v>0.04749623686075211</v>
       </c>
       <c r="G7">
-        <v>0.005603188250496624</v>
+        <v>0.04493708465459437</v>
       </c>
       <c r="H7">
-        <v>0.006144368932180115</v>
+        <v>0.04143722892537095</v>
       </c>
       <c r="I7">
-        <v>0.005994435607967411</v>
+        <v>0.04502614146015488</v>
       </c>
       <c r="J7">
-        <v>0.006312943529337645</v>
+        <v>0.04459316283464432</v>
       </c>
       <c r="K7">
-        <v>0.006573825213710924</v>
+        <v>0.05087372943365649</v>
       </c>
       <c r="L7">
-        <v>0.006903833671273134</v>
+        <v>0.05365143438808739</v>
       </c>
       <c r="M7">
-        <v>0.006089618114031151</v>
+        <v>0.04679812340317291</v>
       </c>
       <c r="N7">
-        <v>0.007673074624564163</v>
+        <v>0.06012619089248653</v>
       </c>
       <c r="O7">
-        <v>0.005298181901647443</v>
+        <v>0.04013654780449347</v>
       </c>
       <c r="P7">
-        <v>0.00965195719840623</v>
+        <v>0.07678258803516248</v>
       </c>
       <c r="Q7">
-        <v>0.00462940370003907</v>
+        <v>0.03450739351631048</v>
       </c>
       <c r="R7">
-        <v>0.01286326073765761</v>
+        <v>0.1038123612023504</v>
       </c>
       <c r="S7">
-        <v>0.006697882562146103</v>
+        <v>0.04770550345594271</v>
       </c>
       <c r="T7">
-        <v>0.007014462698299128</v>
+        <v>0.05026514312266238</v>
       </c>
       <c r="U7">
-        <v>0.006233378256179984</v>
+        <v>0.04394985516618943</v>
       </c>
       <c r="V7">
-        <v>0.007752402590889451</v>
+        <v>0.05623159523075053</v>
       </c>
       <c r="W7">
-        <v>0.005474146248237775</v>
+        <v>0.03781125030175553</v>
       </c>
       <c r="X7">
-        <v>0.009650762770157499</v>
+        <v>0.07158037255968192</v>
       </c>
       <c r="Y7">
-        <v>0.004832581193555983</v>
+        <v>0.03262401593291657</v>
       </c>
       <c r="Z7">
-        <v>0.0127313956702802</v>
+        <v>0.09648815820149559</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -6997,79 +6997,79 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.006167543801151136</v>
+        <v>0.05698280102501999</v>
       </c>
       <c r="C8">
-        <v>0.006167543801151136</v>
+        <v>0.04899973986987638</v>
       </c>
       <c r="D8">
-        <v>0.006245785583265486</v>
+        <v>0.04807728143107191</v>
       </c>
       <c r="E8">
-        <v>0.006352649725528308</v>
+        <v>0.0560743645122718</v>
       </c>
       <c r="F8">
-        <v>0.007008920889347792</v>
+        <v>0.0481867641210556</v>
       </c>
       <c r="G8">
-        <v>0.006352649725528308</v>
+        <v>0.04600640860963379</v>
       </c>
       <c r="H8">
-        <v>0.005921517886238236</v>
+        <v>0.04526986586338885</v>
       </c>
       <c r="I8">
-        <v>0.006680985246738702</v>
+        <v>0.05528880939028206</v>
       </c>
       <c r="J8">
-        <v>0.007142764050513506</v>
+        <v>0.04546045884490013</v>
       </c>
       <c r="K8">
-        <v>0.007352453079071192</v>
+        <v>0.05136070613814259</v>
       </c>
       <c r="L8">
-        <v>0.007703386321356654</v>
+        <v>0.05460302751646587</v>
       </c>
       <c r="M8">
-        <v>0.006900988872826979</v>
+        <v>0.04718956510311158</v>
       </c>
       <c r="N8">
-        <v>0.008603230961944505</v>
+        <v>0.06291681818601537</v>
       </c>
       <c r="O8">
-        <v>0.006359478527085969</v>
+        <v>0.04218647517311538</v>
       </c>
       <c r="P8">
-        <v>0.01040723752378101</v>
+        <v>0.07958428748583188</v>
       </c>
       <c r="Q8">
-        <v>0.005656378533754817</v>
+        <v>0.03569043585626382</v>
       </c>
       <c r="R8">
-        <v>0.01483676748176727</v>
+        <v>0.1205093351819967</v>
       </c>
       <c r="S8">
-        <v>0.007496606640224694</v>
+        <v>0.04858380094822715</v>
       </c>
       <c r="T8">
-        <v>0.007858072409607215</v>
+        <v>0.05177443228897506</v>
       </c>
       <c r="U8">
-        <v>0.007031592680316073</v>
+        <v>0.04447915746592931</v>
       </c>
       <c r="V8">
-        <v>0.008784924004561693</v>
+        <v>0.05995568207131462</v>
       </c>
       <c r="W8">
-        <v>0.006473830034414749</v>
+        <v>0.03955582826175238</v>
       </c>
       <c r="X8">
-        <v>0.01064307404927852</v>
+        <v>0.0763574336911523</v>
       </c>
       <c r="Y8">
-        <v>0.005749627965704602</v>
+        <v>0.03316335070735411</v>
       </c>
       <c r="Z8">
-        <v>0.01520554708215245</v>
+        <v>0.1166300422838615</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -7077,79 +7077,79 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.006040040579401757</v>
+        <v>0.05799270041080463</v>
       </c>
       <c r="C9">
-        <v>0.006040040579401757</v>
+        <v>0.04967937328677113</v>
       </c>
       <c r="D9">
-        <v>0.00613320671766044</v>
+        <v>0.05358370552126238</v>
       </c>
       <c r="E9">
-        <v>0.006236980037520655</v>
+        <v>0.05846838881238238</v>
       </c>
       <c r="F9">
-        <v>0.006543530151247978</v>
+        <v>0.04810015112161636</v>
       </c>
       <c r="G9">
-        <v>0.006236980037520655</v>
+        <v>0.04858370583853181</v>
       </c>
       <c r="H9">
-        <v>0.00559168394041413</v>
+        <v>0.05084898141828523</v>
       </c>
       <c r="I9">
-        <v>0.006562927191550334</v>
+        <v>0.05811963531703635</v>
       </c>
       <c r="J9">
-        <v>0.006673240568488836</v>
+        <v>0.04528352245688438</v>
       </c>
       <c r="K9">
-        <v>0.007091965835856932</v>
+        <v>0.05336588831891045</v>
       </c>
       <c r="L9">
-        <v>0.007429000100187513</v>
+        <v>0.056601881001833</v>
       </c>
       <c r="M9">
-        <v>0.006590642467766641</v>
+        <v>0.0485524941848142</v>
       </c>
       <c r="N9">
-        <v>0.008278833809709247</v>
+        <v>0.06476145394963231</v>
       </c>
       <c r="O9">
-        <v>0.005850133492732067</v>
+        <v>0.04144258911445034</v>
       </c>
       <c r="P9">
-        <v>0.01007816189831283</v>
+        <v>0.08203747940200912</v>
       </c>
       <c r="Q9">
-        <v>0.005165192891027984</v>
+        <v>0.03486621688786581</v>
       </c>
       <c r="R9">
-        <v>0.01480268163952037</v>
+        <v>0.1273993696633355</v>
       </c>
       <c r="S9">
-        <v>0.007239558355894963</v>
+        <v>0.05059245216104168</v>
       </c>
       <c r="T9">
-        <v>0.007587581841988576</v>
+        <v>0.05385498825677226</v>
       </c>
       <c r="U9">
-        <v>0.006721889012780805</v>
+        <v>0.04573957588961448</v>
       </c>
       <c r="V9">
-        <v>0.008465124933267636</v>
+        <v>0.06208149056267355</v>
       </c>
       <c r="W9">
-        <v>0.005957235260180857</v>
+        <v>0.03857135142121719</v>
       </c>
       <c r="X9">
-        <v>0.01032312128644483</v>
+        <v>0.07949922358988035</v>
       </c>
       <c r="Y9">
-        <v>0.005249961723926093</v>
+        <v>0.03194103612989375</v>
       </c>
       <c r="Z9">
-        <v>0.01520168707179295</v>
+        <v>0.1252331973189208</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -7157,79 +7157,79 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.005682414156091043</v>
+        <v>0.05387012571003429</v>
       </c>
       <c r="C10">
-        <v>0.005682414156091043</v>
+        <v>0.04841829492165759</v>
       </c>
       <c r="D10">
-        <v>0.005242470725747556</v>
+        <v>0.04467704680770037</v>
       </c>
       <c r="E10">
-        <v>0.005667319595213762</v>
+        <v>0.04608582201385622</v>
       </c>
       <c r="F10">
-        <v>0.006153453607112169</v>
+        <v>0.04718088358640671</v>
       </c>
       <c r="G10">
-        <v>0.005667319595213762</v>
+        <v>0.04519205704681595</v>
       </c>
       <c r="H10">
-        <v>0.005465133204479042</v>
+        <v>0.04307459379539547</v>
       </c>
       <c r="I10">
-        <v>0.007113268655906307</v>
+        <v>0.04502817175812703</v>
       </c>
       <c r="J10">
-        <v>0.006285644602030516</v>
+        <v>0.04462887346744537</v>
       </c>
       <c r="K10">
-        <v>0.006900122827221824</v>
+        <v>0.0542594181046985</v>
       </c>
       <c r="L10">
-        <v>0.007226861641197024</v>
+        <v>0.05735695033302513</v>
       </c>
       <c r="M10">
-        <v>0.006385296104680032</v>
+        <v>0.04937878471536993</v>
       </c>
       <c r="N10">
-        <v>0.00795250592892977</v>
+        <v>0.06423616538619575</v>
       </c>
       <c r="O10">
-        <v>0.005743751546457425</v>
+        <v>0.04329684752270773</v>
       </c>
       <c r="P10">
-        <v>0.009499259062217581</v>
+        <v>0.07889961360446547</v>
       </c>
       <c r="Q10">
-        <v>0.005102206988234817</v>
+        <v>0.03721491033004553</v>
       </c>
       <c r="R10">
-        <v>0.01410428749431326</v>
+        <v>0.1225559634798725</v>
       </c>
       <c r="S10">
-        <v>0.007030330396840898</v>
+        <v>0.05068455048006034</v>
       </c>
       <c r="T10">
-        <v>0.007356201273565653</v>
+        <v>0.05333448524585678</v>
       </c>
       <c r="U10">
-        <v>0.006516871241514587</v>
+        <v>0.04650917500560543</v>
       </c>
       <c r="V10">
-        <v>0.008079917985874371</v>
+        <v>0.05921964471702557</v>
       </c>
       <c r="W10">
-        <v>0.005877030859215024</v>
+        <v>0.04130608570024163</v>
       </c>
       <c r="X10">
-        <v>0.009622562379691387</v>
+        <v>0.07176420546919585</v>
       </c>
       <c r="Y10">
-        <v>0.005237190476915461</v>
+        <v>0.03610299639487784</v>
       </c>
       <c r="Z10">
-        <v>0.01421535817965211</v>
+        <v>0.1091121556292208</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -7237,79 +7237,79 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.004663276822382631</v>
+        <v>0.04062247678058893</v>
       </c>
       <c r="C11">
-        <v>0.004663276822382631</v>
+        <v>0.04460768605947091</v>
       </c>
       <c r="D11">
-        <v>0.004956088903323976</v>
+        <v>0.04094750773607313</v>
       </c>
       <c r="E11">
-        <v>0.005143430756551256</v>
+        <v>0.04021620931737218</v>
       </c>
       <c r="F11">
-        <v>0.005973987281322479</v>
+        <v>0.04617962241172791</v>
       </c>
       <c r="G11">
-        <v>0.005143430756551256</v>
+        <v>0.04323468782573498</v>
       </c>
       <c r="H11">
-        <v>0.005126495778484453</v>
+        <v>0.04599234794190205</v>
       </c>
       <c r="I11">
-        <v>0.005815683633409027</v>
+        <v>0.04117728643988986</v>
       </c>
       <c r="J11">
-        <v>0.00610392726957798</v>
+        <v>0.04349566251039505</v>
       </c>
       <c r="K11">
-        <v>0.006524720274045294</v>
+        <v>0.05097713691951045</v>
       </c>
       <c r="L11">
-        <v>0.00682550162908894</v>
+        <v>0.05359728667185815</v>
       </c>
       <c r="M11">
-        <v>0.006020620049545787</v>
+        <v>0.04658584717952927</v>
       </c>
       <c r="N11">
-        <v>0.007487220610184963</v>
+        <v>0.05936161612702309</v>
       </c>
       <c r="O11">
-        <v>0.005191955758208485</v>
+        <v>0.03936723305561942</v>
       </c>
       <c r="P11">
-        <v>0.008630656087033058</v>
+        <v>0.06932224743362239</v>
       </c>
       <c r="Q11">
-        <v>0.004685523895297787</v>
+        <v>0.03495563207724794</v>
       </c>
       <c r="R11">
-        <v>0.01236594082176113</v>
+        <v>0.1018608513348706</v>
       </c>
       <c r="S11">
-        <v>0.00671136644192605</v>
+        <v>0.04824519683077175</v>
       </c>
       <c r="T11">
-        <v>0.00704311772572357</v>
+        <v>0.05083914233174197</v>
       </c>
       <c r="U11">
-        <v>0.00615536157714292</v>
+        <v>0.0438978246035643</v>
       </c>
       <c r="V11">
-        <v>0.007772970550078112</v>
+        <v>0.05654582243387646</v>
       </c>
       <c r="W11">
-        <v>0.005241373931703863</v>
+        <v>0.03675140420786805</v>
       </c>
       <c r="X11">
-        <v>0.009034139771584342</v>
+        <v>0.06640683695849503</v>
       </c>
       <c r="Y11">
-        <v>0.004682797351542458</v>
+        <v>0.03238392387600191</v>
       </c>
       <c r="Z11">
-        <v>0.01315402780758144</v>
+        <v>0.09862002062170661</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -7317,79 +7317,79 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.003951765072334251</v>
+        <v>0.04400769374220415</v>
       </c>
       <c r="C12">
-        <v>0.003951765072334251</v>
+        <v>0.04807498794492716</v>
       </c>
       <c r="D12">
-        <v>0.003878785054041262</v>
+        <v>0.04108476189573336</v>
       </c>
       <c r="E12">
-        <v>0.003949807221917346</v>
+        <v>0.04408739456486101</v>
       </c>
       <c r="F12">
-        <v>0.004786151926964521</v>
+        <v>0.04607848450541496</v>
       </c>
       <c r="G12">
-        <v>0.003949807221917346</v>
+        <v>0.04637817798048325</v>
       </c>
       <c r="H12">
-        <v>0.003623452942840579</v>
+        <v>0.04486183538825494</v>
       </c>
       <c r="I12">
-        <v>0.003858484552188983</v>
+        <v>0.04410868132507541</v>
       </c>
       <c r="J12">
-        <v>0.004840183071792126</v>
+        <v>0.04342552646994591</v>
       </c>
       <c r="K12">
-        <v>0.005339003860583587</v>
+        <v>0.0522351608599438</v>
       </c>
       <c r="L12">
-        <v>0.005580456706503183</v>
+        <v>0.05492403094759218</v>
       </c>
       <c r="M12">
-        <v>0.004927229940046404</v>
+        <v>0.04764955917200663</v>
       </c>
       <c r="N12">
-        <v>0.006006061804793535</v>
+        <v>0.05966365956362704</v>
       </c>
       <c r="O12">
-        <v>0.00416493445759321</v>
+        <v>0.03916047504913639</v>
       </c>
       <c r="P12">
-        <v>0.007433044172413276</v>
+        <v>0.07555483777393521</v>
       </c>
       <c r="Q12">
-        <v>0.003619986054118377</v>
+        <v>0.03309181408208711</v>
       </c>
       <c r="R12">
-        <v>0.009834926983377769</v>
+        <v>0.1023027140304439</v>
       </c>
       <c r="S12">
-        <v>0.005392761102137867</v>
+        <v>0.04959335296956443</v>
       </c>
       <c r="T12">
-        <v>0.00563409432339699</v>
+        <v>0.05228709277747714</v>
       </c>
       <c r="U12">
-        <v>0.004981191189614124</v>
+        <v>0.04499944645590642</v>
       </c>
       <c r="V12">
-        <v>0.006059488561197441</v>
+        <v>0.05703530517211215</v>
       </c>
       <c r="W12">
-        <v>0.004219273376506352</v>
+        <v>0.03649498804434567</v>
       </c>
       <c r="X12">
-        <v>0.007485763949031637</v>
+        <v>0.07295526334948171</v>
       </c>
       <c r="Y12">
-        <v>0.00367459496060401</v>
+        <v>0.030415336333852</v>
       </c>
       <c r="Z12">
-        <v>0.009886456778512735</v>
+        <v>0.09975158176600128</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -7397,79 +7397,79 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.003998590650911898</v>
+        <v>0.04601019131379503</v>
       </c>
       <c r="C13">
-        <v>0.003998590650911898</v>
+        <v>0.05107894201666651</v>
       </c>
       <c r="D13">
-        <v>0.003886564032118275</v>
+        <v>0.04176472122913249</v>
       </c>
       <c r="E13">
-        <v>0.004818093348548237</v>
+        <v>0.04535093266088504</v>
       </c>
       <c r="F13">
-        <v>0.005131336860358715</v>
+        <v>0.04933920875191689</v>
       </c>
       <c r="G13">
-        <v>0.004818093348548237</v>
+        <v>0.05349372853013214</v>
       </c>
       <c r="H13">
-        <v>0.003625882485786098</v>
+        <v>0.04557341939882865</v>
       </c>
       <c r="I13">
-        <v>0.005871218014762226</v>
+        <v>0.05278598820657496</v>
       </c>
       <c r="J13">
-        <v>0.005152393132448196</v>
+        <v>0.04616517946124077</v>
       </c>
       <c r="K13">
-        <v>0.006267736323347311</v>
+        <v>0.06241530512329092</v>
       </c>
       <c r="L13">
-        <v>0.006555234991147844</v>
+        <v>0.06572343787875243</v>
       </c>
       <c r="M13">
-        <v>0.005785106431782298</v>
+        <v>0.05686187503171648</v>
       </c>
       <c r="N13">
-        <v>0.007251789482536621</v>
+        <v>0.07373841320561464</v>
       </c>
       <c r="O13">
-        <v>0.005239698666997975</v>
+        <v>0.05058608493651553</v>
       </c>
       <c r="P13">
-        <v>0.008604912558805057</v>
+        <v>0.08930826194620116</v>
       </c>
       <c r="Q13">
-        <v>0.004699089210994746</v>
+        <v>0.04436550707089112</v>
       </c>
       <c r="R13">
-        <v>0.01390784348004383</v>
+        <v>0.1503269776665494</v>
       </c>
       <c r="S13">
-        <v>0.006521695262104924</v>
+        <v>0.05905391452345788</v>
       </c>
       <c r="T13">
-        <v>0.006868116173865504</v>
+        <v>0.06231464658177516</v>
       </c>
       <c r="U13">
-        <v>0.005940151394935216</v>
+        <v>0.05358005695128966</v>
       </c>
       <c r="V13">
-        <v>0.007707428035182515</v>
+        <v>0.07021477905130047</v>
       </c>
       <c r="W13">
-        <v>0.005282963462193309</v>
+        <v>0.04739418973634562</v>
       </c>
       <c r="X13">
-        <v>0.009337870824331058</v>
+        <v>0.08556153466374226</v>
       </c>
       <c r="Y13">
-        <v>0.004631557241469659</v>
+        <v>0.04126274364059464</v>
       </c>
       <c r="Z13">
-        <v>0.01572762622317503</v>
+        <v>0.1457059415586014</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -9507,79 +9507,79 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.01747897756951306</v>
+        <v>0.03896059505272909</v>
       </c>
       <c r="C2">
-        <v>0.01747897756951306</v>
+        <v>0.03896059505272909</v>
       </c>
       <c r="D2">
-        <v>0.03848859314419201</v>
+        <v>0.04126859714863333</v>
       </c>
       <c r="E2">
-        <v>0.02244626224487645</v>
+        <v>0.03553826779587684</v>
       </c>
       <c r="F2">
-        <v>0.01382025424391031</v>
+        <v>0.03382116556167603</v>
       </c>
       <c r="G2">
-        <v>0.02244626224487645</v>
+        <v>0.03553826779587684</v>
       </c>
       <c r="H2">
-        <v>0.01653541230292861</v>
+        <v>0.0444384805338246</v>
       </c>
       <c r="I2">
-        <v>0.01500034626958827</v>
+        <v>0.04029175858317047</v>
       </c>
       <c r="J2">
-        <v>0.0141372587531805</v>
+        <v>0.03258232772350311</v>
       </c>
       <c r="K2">
-        <v>0.02127154238179099</v>
+        <v>0.05043006723264831</v>
       </c>
       <c r="L2">
-        <v>0.02334629701929196</v>
+        <v>0.05505468986540675</v>
       </c>
       <c r="M2">
-        <v>0.01785615016470851</v>
+        <v>0.04281716695934589</v>
       </c>
       <c r="N2">
-        <v>0.02778770521970474</v>
+        <v>0.06495457706830413</v>
       </c>
       <c r="O2">
-        <v>0.01483578284069698</v>
+        <v>0.03608477613423505</v>
       </c>
       <c r="P2">
-        <v>0.03365365009203268</v>
+        <v>0.07802975276799856</v>
       </c>
       <c r="Q2">
-        <v>0.01257225524544529</v>
+        <v>0.03103937907490718</v>
       </c>
       <c r="R2">
-        <v>0.05113612345705771</v>
+        <v>0.1169981399397339</v>
       </c>
       <c r="S2">
-        <v>0.02370610034816781</v>
+        <v>0.04773229128487982</v>
       </c>
       <c r="T2">
-        <v>0.02637047167663435</v>
+        <v>0.05195068367224994</v>
       </c>
       <c r="U2">
-        <v>0.01932010070551943</v>
+        <v>0.04078811375756626</v>
       </c>
       <c r="V2">
-        <v>0.03207406691305683</v>
+        <v>0.06098095751918125</v>
       </c>
       <c r="W2">
-        <v>0.01544138658960521</v>
+        <v>0.03464710108243942</v>
       </c>
       <c r="X2">
-        <v>0.03960703252243654</v>
+        <v>0.07290760019147621</v>
       </c>
       <c r="Y2">
-        <v>0.01253459562889403</v>
+        <v>0.03004489540287387</v>
       </c>
       <c r="Z2">
-        <v>0.06205778401975949</v>
+        <v>0.1084529756409083</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -9587,79 +9587,79 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01502552383677755</v>
+        <v>0.0367723894992612</v>
       </c>
       <c r="C3">
-        <v>0.01502552383677755</v>
+        <v>0.0367723894992612</v>
       </c>
       <c r="D3">
-        <v>0.02608957964013145</v>
+        <v>0.03123093348801413</v>
       </c>
       <c r="E3">
-        <v>0.01996271332258583</v>
+        <v>0.03698697443365646</v>
       </c>
       <c r="F3">
-        <v>0.01250891108065844</v>
+        <v>0.03228778764605522</v>
       </c>
       <c r="G3">
-        <v>0.01996271332258583</v>
+        <v>0.03698697443365646</v>
       </c>
       <c r="H3">
-        <v>0.01192317708545236</v>
+        <v>0.03033231351464492</v>
       </c>
       <c r="I3">
-        <v>0.01242508485369393</v>
+        <v>0.0338490300444634</v>
       </c>
       <c r="J3">
-        <v>0.01292386930435896</v>
+        <v>0.03107018396258354</v>
       </c>
       <c r="K3">
-        <v>0.01733961699418023</v>
+        <v>0.04411011087006235</v>
       </c>
       <c r="L3">
-        <v>0.01876253410152291</v>
+        <v>0.047592456155642</v>
       </c>
       <c r="M3">
-        <v>0.01435254285542918</v>
+        <v>0.03679975983761002</v>
       </c>
       <c r="N3">
-        <v>0.02215078972671587</v>
+        <v>0.05588462998772449</v>
       </c>
       <c r="O3">
-        <v>0.01199654071782272</v>
+        <v>0.0310338491641265</v>
       </c>
       <c r="P3">
-        <v>0.02649617122031146</v>
+        <v>0.06651920503090966</v>
       </c>
       <c r="Q3">
-        <v>0.01033922543862634</v>
+        <v>0.02697785460235844</v>
       </c>
       <c r="R3">
-        <v>0.03744376788778638</v>
+        <v>0.09331156802006843</v>
       </c>
       <c r="S3">
-        <v>0.0193418816375674</v>
+        <v>0.04296149624299871</v>
       </c>
       <c r="T3">
-        <v>0.02123235058921607</v>
+        <v>0.04646416272186559</v>
       </c>
       <c r="U3">
-        <v>0.01537329422903777</v>
+        <v>0.03560848572558861</v>
       </c>
       <c r="V3">
-        <v>0.02573394244345868</v>
+        <v>0.0548047254566542</v>
       </c>
       <c r="W3">
-        <v>0.01224314078005666</v>
+        <v>0.02980892813439192</v>
       </c>
       <c r="X3">
-        <v>0.03150715913634985</v>
+        <v>0.06550135846286648</v>
       </c>
       <c r="Y3">
-        <v>0.01004125350057569</v>
+        <v>0.02572926485436006</v>
       </c>
       <c r="Z3">
-        <v>0.0460519920631843</v>
+        <v>0.0924500680352256</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -9667,79 +9667,79 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01069455234224823</v>
+        <v>0.0277142340042356</v>
       </c>
       <c r="C4">
-        <v>0.01069455234224823</v>
+        <v>0.0277142340042356</v>
       </c>
       <c r="D4">
-        <v>0.0326054194946768</v>
+        <v>0.04050347470201526</v>
       </c>
       <c r="E4">
-        <v>0.0205598853288331</v>
+        <v>0.02868982048159457</v>
       </c>
       <c r="F4">
-        <v>0.01269772928208113</v>
+        <v>0.02843231707811356</v>
       </c>
       <c r="G4">
-        <v>0.0205598853288331</v>
+        <v>0.02868982048159457</v>
       </c>
       <c r="H4">
-        <v>0.01187603720840632</v>
+        <v>0.03080399022576987</v>
       </c>
       <c r="I4">
-        <v>0.01226378950912021</v>
+        <v>0.02420062644955708</v>
       </c>
       <c r="J4">
-        <v>0.0124936755746603</v>
+        <v>0.02742841467261314</v>
       </c>
       <c r="K4">
-        <v>0.01436180162653359</v>
+        <v>0.03274465188916909</v>
       </c>
       <c r="L4">
-        <v>0.01505694752877965</v>
+        <v>0.0345460770994442</v>
       </c>
       <c r="M4">
-        <v>0.01328058238473241</v>
+        <v>0.02994274283134118</v>
       </c>
       <c r="N4">
-        <v>0.01641087785530813</v>
+        <v>0.03805469912438005</v>
       </c>
       <c r="O4">
-        <v>0.01170955264565632</v>
+        <v>0.02587152185611942</v>
       </c>
       <c r="P4">
-        <v>0.02023418031766145</v>
+        <v>0.04796253778089318</v>
       </c>
       <c r="Q4">
-        <v>0.01069677853884553</v>
+        <v>0.0232469838959186</v>
       </c>
       <c r="R4">
-        <v>0.02702308214451988</v>
+        <v>0.06555553352678001</v>
       </c>
       <c r="S4">
-        <v>0.01569279373182412</v>
+        <v>0.03189255073954561</v>
       </c>
       <c r="T4">
-        <v>0.01702918627819812</v>
+        <v>0.03375738907084905</v>
       </c>
       <c r="U4">
-        <v>0.01361418932507932</v>
+        <v>0.02899200988885672</v>
       </c>
       <c r="V4">
-        <v>0.0196320677608281</v>
+        <v>0.03738952034381852</v>
       </c>
       <c r="W4">
-        <v>0.01059394217027407</v>
+        <v>0.02477747526011094</v>
       </c>
       <c r="X4">
-        <v>0.02698222676588512</v>
+        <v>0.04764613116598745</v>
       </c>
       <c r="Y4">
-        <v>0.008646921029633787</v>
+        <v>0.02206054926050423</v>
       </c>
       <c r="Z4">
-        <v>0.04003364197262695</v>
+        <v>0.06585842920770169</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -9747,79 +9747,79 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.009995922346944075</v>
+        <v>0.02467066808454947</v>
       </c>
       <c r="C5">
-        <v>0.009995922346944075</v>
+        <v>0.02467066808454947</v>
       </c>
       <c r="D5">
-        <v>0.01072667065052495</v>
+        <v>0.02326053990933615</v>
       </c>
       <c r="E5">
-        <v>0.01037529222382036</v>
+        <v>0.02450226187856365</v>
       </c>
       <c r="F5">
-        <v>0.01268378645181656</v>
+        <v>0.0268554650247097</v>
       </c>
       <c r="G5">
-        <v>0.01037529222382036</v>
+        <v>0.02450226187856365</v>
       </c>
       <c r="H5">
-        <v>0.009598984930598443</v>
+        <v>0.02633275302544943</v>
       </c>
       <c r="I5">
-        <v>0.01079011109995084</v>
+        <v>0.02444852903356136</v>
       </c>
       <c r="J5">
-        <v>0.01253101415932178</v>
+        <v>0.02593845129013062</v>
       </c>
       <c r="K5">
-        <v>0.01380632853137715</v>
+        <v>0.02962598105060158</v>
       </c>
       <c r="L5">
-        <v>0.01452103697918358</v>
+        <v>0.03138993381864668</v>
       </c>
       <c r="M5">
-        <v>0.0127987395588053</v>
+        <v>0.02713917770767927</v>
       </c>
       <c r="N5">
-        <v>0.01578851993277595</v>
+        <v>0.03451817453176721</v>
       </c>
       <c r="O5">
-        <v>0.01143829452738636</v>
+        <v>0.02378149978137246</v>
       </c>
       <c r="P5">
-        <v>0.01876830438439965</v>
+        <v>0.0418725006877706</v>
       </c>
       <c r="Q5">
-        <v>0.01046669087526351</v>
+        <v>0.02138351084355451</v>
       </c>
       <c r="R5">
-        <v>0.02487381375391242</v>
+        <v>0.05694134475381176</v>
       </c>
       <c r="S5">
-        <v>0.01369615947605554</v>
+        <v>0.02869005529909031</v>
       </c>
       <c r="T5">
-        <v>0.01443799287005861</v>
+        <v>0.03044196702340742</v>
       </c>
       <c r="U5">
-        <v>0.01265033001989456</v>
+        <v>0.02622022730173137</v>
       </c>
       <c r="V5">
-        <v>0.01575357992403889</v>
+        <v>0.03354885382960895</v>
       </c>
       <c r="W5">
-        <v>0.01123825274823277</v>
+        <v>0.02288546946005922</v>
       </c>
       <c r="X5">
-        <v>0.0188464545359594</v>
+        <v>0.04085297809560797</v>
       </c>
       <c r="Y5">
-        <v>0.01022977434407754</v>
+        <v>0.0205038496054631</v>
       </c>
       <c r="Z5">
-        <v>0.02518368302626817</v>
+        <v>0.05581895965103301</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -9827,79 +9827,79 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01029978354002798</v>
+        <v>0.02314757307167331</v>
       </c>
       <c r="C6">
-        <v>0.01029978354002798</v>
+        <v>0.02314757307167331</v>
       </c>
       <c r="D6">
-        <v>0.01198970306555854</v>
+        <v>0.02523520056818454</v>
       </c>
       <c r="E6">
-        <v>0.01140805251826427</v>
+        <v>0.02232202319501147</v>
       </c>
       <c r="F6">
-        <v>0.01281913463026285</v>
+        <v>0.02516886405646801</v>
       </c>
       <c r="G6">
-        <v>0.01140805251826427</v>
+        <v>0.02232202319501147</v>
       </c>
       <c r="H6">
-        <v>0.01326827343931707</v>
+        <v>0.02651176021583308</v>
       </c>
       <c r="I6">
-        <v>0.01240438335894057</v>
+        <v>0.02407244078158698</v>
       </c>
       <c r="J6">
-        <v>0.01232187356799841</v>
+        <v>0.02433019503951073</v>
       </c>
       <c r="K6">
-        <v>0.01379349415314826</v>
+        <v>0.02735862446904552</v>
       </c>
       <c r="L6">
-        <v>0.01441869101402789</v>
+        <v>0.02876368215449593</v>
       </c>
       <c r="M6">
-        <v>0.01277793549610161</v>
+        <v>0.02507627376417878</v>
       </c>
       <c r="N6">
-        <v>0.01554960724672283</v>
+        <v>0.03130528567776538</v>
       </c>
       <c r="O6">
-        <v>0.01113409004311332</v>
+        <v>0.02138192110194012</v>
       </c>
       <c r="P6">
-        <v>0.0192966684985846</v>
+        <v>0.0397263727612392</v>
       </c>
       <c r="Q6">
-        <v>0.01000111385371037</v>
+        <v>0.01883568806405634</v>
       </c>
       <c r="R6">
-        <v>0.02753340539554407</v>
+        <v>0.05823748694665431</v>
       </c>
       <c r="S6">
-        <v>0.01340107533622483</v>
+        <v>0.02644185843375612</v>
       </c>
       <c r="T6">
-        <v>0.0140935441240834</v>
+        <v>0.02779680524169317</v>
       </c>
       <c r="U6">
-        <v>0.0122762413579241</v>
+        <v>0.02424090694672823</v>
       </c>
       <c r="V6">
-        <v>0.01534614829058868</v>
+        <v>0.03024776338850516</v>
       </c>
       <c r="W6">
-        <v>0.01045551617600932</v>
+        <v>0.0206783120448048</v>
       </c>
       <c r="X6">
-        <v>0.01949639779673277</v>
+        <v>0.03836851542684944</v>
       </c>
       <c r="Y6">
-        <v>0.009200630399000391</v>
+        <v>0.0182228894933538</v>
       </c>
       <c r="Z6">
-        <v>0.0286194173955877</v>
+        <v>0.05621943737589814</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -9907,79 +9907,79 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01423221149783102</v>
+        <v>0.02443319272927875</v>
       </c>
       <c r="C7">
-        <v>0.01423221149783102</v>
+        <v>0.02443319272927875</v>
       </c>
       <c r="D7">
-        <v>0.01471075614109157</v>
+        <v>0.02536597880360398</v>
       </c>
       <c r="E7">
-        <v>0.0137850360742949</v>
+        <v>0.02295136348929764</v>
       </c>
       <c r="F7">
-        <v>0.01271899044513702</v>
+        <v>0.02591733075678349</v>
       </c>
       <c r="G7">
-        <v>0.0137850360742949</v>
+        <v>0.02295136348929764</v>
       </c>
       <c r="H7">
-        <v>0.01673138925723577</v>
+        <v>0.02917210910014935</v>
       </c>
       <c r="I7">
-        <v>0.01451551445242681</v>
+        <v>0.02487544166874627</v>
       </c>
       <c r="J7">
-        <v>0.01221209019422531</v>
+        <v>0.02505580894649029</v>
       </c>
       <c r="K7">
-        <v>0.01369674337503634</v>
+        <v>0.02759589109728206</v>
       </c>
       <c r="L7">
-        <v>0.0145008633246637</v>
+        <v>0.02897636648648616</v>
       </c>
       <c r="M7">
-        <v>0.01251689304186628</v>
+        <v>0.02557037942002507</v>
       </c>
       <c r="N7">
-        <v>0.01637524557892784</v>
+        <v>0.03219421796893181</v>
       </c>
       <c r="O7">
-        <v>0.01058842838391039</v>
+        <v>0.02225968180520817</v>
       </c>
       <c r="P7">
-        <v>0.02119711883439246</v>
+        <v>0.04047218366561055</v>
       </c>
       <c r="Q7">
-        <v>0.008958840167408916</v>
+        <v>0.01946208123770606</v>
       </c>
       <c r="R7">
-        <v>0.0290219887158991</v>
+        <v>0.05390555302816653</v>
       </c>
       <c r="S7">
-        <v>0.01315912217252775</v>
+        <v>0.02663256761820233</v>
       </c>
       <c r="T7">
-        <v>0.01393797671072532</v>
+        <v>0.02792931965534751</v>
       </c>
       <c r="U7">
-        <v>0.01201634268196883</v>
+        <v>0.02472989958493977</v>
       </c>
       <c r="V7">
-        <v>0.01575346596170976</v>
+        <v>0.03095201422688768</v>
       </c>
       <c r="W7">
-        <v>0.01014847029390207</v>
+        <v>0.02161998983214028</v>
       </c>
       <c r="X7">
-        <v>0.02042383618368036</v>
+        <v>0.03872793617706086</v>
       </c>
       <c r="Y7">
-        <v>0.008570083663395482</v>
+        <v>0.01899205871261599</v>
       </c>
       <c r="Z7">
-        <v>0.02800284901732686</v>
+        <v>0.05134659582347531</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -9987,79 +9987,79 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01588227745248312</v>
+        <v>0.02647000903084818</v>
       </c>
       <c r="C8">
-        <v>0.01588227745248312</v>
+        <v>0.02647000903084818</v>
       </c>
       <c r="D8">
-        <v>0.01786768156326225</v>
+        <v>0.02891581405329756</v>
       </c>
       <c r="E8">
-        <v>0.01608870582191778</v>
+        <v>0.02618558921528482</v>
       </c>
       <c r="F8">
-        <v>0.01396886259317398</v>
+        <v>0.02709085680544376</v>
       </c>
       <c r="G8">
-        <v>0.01608870582191778</v>
+        <v>0.02618558921528482</v>
       </c>
       <c r="H8">
-        <v>0.01763615237706538</v>
+        <v>0.02925744340466634</v>
       </c>
       <c r="I8">
-        <v>0.01669160760654141</v>
+        <v>0.02601390027203277</v>
       </c>
       <c r="J8">
-        <v>0.01332783699035645</v>
+        <v>0.02619164437055588</v>
       </c>
       <c r="K8">
-        <v>0.01485350544727544</v>
+        <v>0.02856523630845893</v>
       </c>
       <c r="L8">
-        <v>0.01575720703432163</v>
+        <v>0.03007137982231402</v>
       </c>
       <c r="M8">
-        <v>0.01369092273775381</v>
+        <v>0.02662763164740106</v>
       </c>
       <c r="N8">
-        <v>0.01807443131463866</v>
+        <v>0.03393335413991435</v>
       </c>
       <c r="O8">
-        <v>0.01229645877742594</v>
+        <v>0.02430356485449284</v>
       </c>
       <c r="P8">
-        <v>0.02271999746948947</v>
+        <v>0.04167583178143659</v>
       </c>
       <c r="Q8">
-        <v>0.01048587914784307</v>
+        <v>0.02128598382497648</v>
       </c>
       <c r="R8">
-        <v>0.03412664913586159</v>
+        <v>0.06068659226738966</v>
       </c>
       <c r="S8">
-        <v>0.01422397790463539</v>
+        <v>0.0276501816898442</v>
       </c>
       <c r="T8">
-        <v>0.01513942526590242</v>
+        <v>0.02914014171619374</v>
       </c>
       <c r="U8">
-        <v>0.01304628463847114</v>
+        <v>0.02573339655928556</v>
       </c>
       <c r="V8">
-        <v>0.01748676744531996</v>
+        <v>0.03296061918270338</v>
       </c>
       <c r="W8">
-        <v>0.01163369626730692</v>
+        <v>0.02343430182618381</v>
       </c>
       <c r="X8">
-        <v>0.0221927138982304</v>
+        <v>0.04061990402817334</v>
       </c>
       <c r="Y8">
-        <v>0.009799583803608493</v>
+        <v>0.02044914465564166</v>
       </c>
       <c r="Z8">
-        <v>0.03374762241953047</v>
+        <v>0.05942639420258883</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -10067,79 +10067,79 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.01621047570781374</v>
+        <v>0.02535667212804547</v>
       </c>
       <c r="C9">
-        <v>0.01621047570781374</v>
+        <v>0.02535667212804547</v>
       </c>
       <c r="D9">
-        <v>0.01843981108070479</v>
+        <v>0.0285827509282954</v>
       </c>
       <c r="E9">
-        <v>0.01688992922413491</v>
+        <v>0.02532058107441588</v>
       </c>
       <c r="F9">
-        <v>0.01332816295325756</v>
+        <v>0.02670414745807648</v>
       </c>
       <c r="G9">
-        <v>0.01688992922413491</v>
+        <v>0.02532058107441588</v>
       </c>
       <c r="H9">
-        <v>0.01767014832482663</v>
+        <v>0.02728334487876016</v>
       </c>
       <c r="I9">
-        <v>0.01692950726506151</v>
+        <v>0.02529183057784665</v>
       </c>
       <c r="J9">
-        <v>0.01277825608849525</v>
+        <v>0.02580716274678707</v>
       </c>
       <c r="K9">
-        <v>0.0148000741475251</v>
+        <v>0.02900653328729996</v>
       </c>
       <c r="L9">
-        <v>0.01570461869202101</v>
+        <v>0.03042143559204474</v>
       </c>
       <c r="M9">
-        <v>0.01345460466377671</v>
+        <v>0.02690192950067242</v>
       </c>
       <c r="N9">
-        <v>0.01798543262411015</v>
+        <v>0.03398911936046035</v>
       </c>
       <c r="O9">
-        <v>0.01146720034199896</v>
+        <v>0.02379320149777438</v>
       </c>
       <c r="P9">
-        <v>0.02281453333746733</v>
+        <v>0.04154287198740426</v>
       </c>
       <c r="Q9">
-        <v>0.009628932396733087</v>
+        <v>0.02091775487845434</v>
       </c>
       <c r="R9">
-        <v>0.03549436743611785</v>
+        <v>0.06137686092595925</v>
       </c>
       <c r="S9">
-        <v>0.01431186166204467</v>
+        <v>0.02810627150834099</v>
       </c>
       <c r="T9">
-        <v>0.0152543197127513</v>
+        <v>0.02951915993229324</v>
       </c>
       <c r="U9">
-        <v>0.01290999753644163</v>
+        <v>0.02600466327916471</v>
       </c>
       <c r="V9">
-        <v>0.01763073275458682</v>
+        <v>0.03308176568946317</v>
       </c>
       <c r="W9">
-        <v>0.01083929221356292</v>
+        <v>0.02290036003944166</v>
       </c>
       <c r="X9">
-        <v>0.02266224267045605</v>
+        <v>0.04062476679153083</v>
       </c>
       <c r="Y9">
-        <v>0.008923974239546233</v>
+        <v>0.02002900614560321</v>
       </c>
       <c r="Z9">
-        <v>0.03587354530957293</v>
+        <v>0.06043052530793675</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -10147,79 +10147,79 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.01561758084171798</v>
+        <v>0.02514303258062615</v>
       </c>
       <c r="C10">
-        <v>0.01561758084171798</v>
+        <v>0.02514303258062615</v>
       </c>
       <c r="D10">
-        <v>0.01567767835885646</v>
+        <v>0.02443307421995757</v>
       </c>
       <c r="E10">
-        <v>0.01441726482965315</v>
+        <v>0.02287251209670721</v>
       </c>
       <c r="F10">
-        <v>0.01336949691176414</v>
+        <v>0.02644611522555351</v>
       </c>
       <c r="G10">
-        <v>0.01441726482965315</v>
+        <v>0.02287251209670721</v>
       </c>
       <c r="H10">
-        <v>0.01602507709386163</v>
+        <v>0.02742304085800396</v>
       </c>
       <c r="I10">
-        <v>0.01488094064794058</v>
+        <v>0.02527054312344973</v>
       </c>
       <c r="J10">
-        <v>0.01282253302633762</v>
+        <v>0.02559001371264458</v>
       </c>
       <c r="K10">
-        <v>0.01542164703436394</v>
+        <v>0.02974990970664466</v>
       </c>
       <c r="L10">
-        <v>0.01631965793276263</v>
+        <v>0.0311956340800305</v>
       </c>
       <c r="M10">
-        <v>0.01400669421010445</v>
+        <v>0.02747195095484018</v>
       </c>
       <c r="N10">
-        <v>0.01831402300624979</v>
+        <v>0.03440639934057611</v>
       </c>
       <c r="O10">
-        <v>0.01224346933307468</v>
+        <v>0.0246333025764878</v>
       </c>
       <c r="P10">
-        <v>0.02256512851136496</v>
+        <v>0.04125033280902179</v>
       </c>
       <c r="Q10">
-        <v>0.01048024445604492</v>
+        <v>0.02179465419813542</v>
       </c>
       <c r="R10">
-        <v>0.03522161602549181</v>
+        <v>0.06162624641235898</v>
       </c>
       <c r="S10">
-        <v>0.01471696162495225</v>
+        <v>0.02859546180214905</v>
       </c>
       <c r="T10">
-        <v>0.01554595435265722</v>
+        <v>0.02991063124770958</v>
       </c>
       <c r="U10">
-        <v>0.01341075743138582</v>
+        <v>0.02652321220618761</v>
       </c>
       <c r="V10">
-        <v>0.01738703907140372</v>
+        <v>0.03283145104245876</v>
       </c>
       <c r="W10">
-        <v>0.01178304823211816</v>
+        <v>0.02394090559046965</v>
       </c>
       <c r="X10">
-        <v>0.02131141855803487</v>
+        <v>0.03905734883518178</v>
       </c>
       <c r="Y10">
-        <v>0.0101553390328505</v>
+        <v>0.02135859897475169</v>
       </c>
       <c r="Z10">
-        <v>0.0329951699759845</v>
+        <v>0.05759323263835127</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -10227,79 +10227,79 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0124536558152018</v>
+        <v>0.02399334215616061</v>
       </c>
       <c r="C11">
-        <v>0.0124536558152018</v>
+        <v>0.02399334215616061</v>
       </c>
       <c r="D11">
-        <v>0.01265035369347817</v>
+        <v>0.02434595678522601</v>
       </c>
       <c r="E11">
-        <v>0.01402127080384733</v>
+        <v>0.02141004875261729</v>
       </c>
       <c r="F11">
-        <v>0.01238521561026573</v>
+        <v>0.02534485049545765</v>
       </c>
       <c r="G11">
-        <v>0.01402127080384733</v>
+        <v>0.02141004875261729</v>
       </c>
       <c r="H11">
-        <v>0.01327521138503218</v>
+        <v>0.02596378719062827</v>
       </c>
       <c r="I11">
-        <v>0.01296700723169985</v>
+        <v>0.02043245728864117</v>
       </c>
       <c r="J11">
-        <v>0.01190204545855522</v>
+        <v>0.02444103173911572</v>
       </c>
       <c r="K11">
-        <v>0.01385599236203953</v>
+        <v>0.02817846420409726</v>
       </c>
       <c r="L11">
-        <v>0.01465925316211996</v>
+        <v>0.02972603477316945</v>
       </c>
       <c r="M11">
-        <v>0.01250975216841636</v>
+        <v>0.02558478391701659</v>
       </c>
       <c r="N11">
-        <v>0.0164264269222969</v>
+        <v>0.03313069002512826</v>
       </c>
       <c r="O11">
-        <v>0.01029673753005525</v>
+        <v>0.02132116701586732</v>
       </c>
       <c r="P11">
-        <v>0.01948006332818405</v>
+        <v>0.0390138575218182</v>
       </c>
       <c r="Q11">
-        <v>0.00894427050852448</v>
+        <v>0.01871549005770856</v>
       </c>
       <c r="R11">
-        <v>0.0294554416361596</v>
+        <v>0.05823252458890073</v>
       </c>
       <c r="S11">
-        <v>0.01355795754048787</v>
+        <v>0.02696955849679718</v>
       </c>
       <c r="T11">
-        <v>0.01446232950733592</v>
+        <v>0.02835050664134084</v>
       </c>
       <c r="U11">
-        <v>0.01204225816659214</v>
+        <v>0.02465513222663951</v>
       </c>
       <c r="V11">
-        <v>0.01645194783440164</v>
+        <v>0.0313885925593369</v>
       </c>
       <c r="W11">
-        <v>0.009550678344748738</v>
+        <v>0.02085056656329983</v>
       </c>
       <c r="X11">
-        <v>0.01988996343550462</v>
+        <v>0.03663833651347809</v>
       </c>
       <c r="Y11">
-        <v>0.008027968335451087</v>
+        <v>0.01852543526876585</v>
       </c>
       <c r="Z11">
-        <v>0.0311210013493851</v>
+        <v>0.05378778556432265</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -10307,79 +10307,79 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.01228996282301065</v>
+        <v>0.02736118624711493</v>
       </c>
       <c r="C12">
-        <v>0.01228996282301065</v>
+        <v>0.02736118624711493</v>
       </c>
       <c r="D12">
-        <v>0.01572836487862951</v>
+        <v>0.03075698777690725</v>
       </c>
       <c r="E12">
-        <v>0.01287871780738684</v>
+        <v>0.02668323724899302</v>
       </c>
       <c r="F12">
-        <v>0.01146944891661406</v>
+        <v>0.02692665718495846</v>
       </c>
       <c r="G12">
-        <v>0.01287871780738684</v>
+        <v>0.02668323724899302</v>
       </c>
       <c r="H12">
-        <v>0.0118632764785503</v>
+        <v>0.03931023730736963</v>
       </c>
       <c r="I12">
-        <v>0.01234503852870528</v>
+        <v>0.03163150333589675</v>
       </c>
       <c r="J12">
-        <v>0.01155242323875427</v>
+        <v>0.02594896964728832</v>
       </c>
       <c r="K12">
-        <v>0.0131888147155517</v>
+        <v>0.0307544871409264</v>
       </c>
       <c r="L12">
-        <v>0.01393973144403757</v>
+        <v>0.03242625562062494</v>
       </c>
       <c r="M12">
-        <v>0.01190820058939413</v>
+        <v>0.02790345153397734</v>
       </c>
       <c r="N12">
-        <v>0.01526336044007567</v>
+        <v>0.0353730553794389</v>
       </c>
       <c r="O12">
-        <v>0.009537466760835641</v>
+        <v>0.02262547870690945</v>
       </c>
       <c r="P12">
-        <v>0.01970126601546433</v>
+        <v>0.045253179733271</v>
       </c>
       <c r="Q12">
-        <v>0.007842680887542659</v>
+        <v>0.01885237112343272</v>
       </c>
       <c r="R12">
-        <v>0.02717110541928938</v>
+        <v>0.06188330873426563</v>
       </c>
       <c r="S12">
-        <v>0.01335415586000607</v>
+        <v>0.0296819545384191</v>
       </c>
       <c r="T12">
-        <v>0.01414104551803732</v>
+        <v>0.03131230033433239</v>
       </c>
       <c r="U12">
-        <v>0.01201219346447651</v>
+        <v>0.02690156121707433</v>
       </c>
       <c r="V12">
-        <v>0.01552808342589274</v>
+        <v>0.03418608498604862</v>
       </c>
       <c r="W12">
-        <v>0.009527888799431866</v>
+        <v>0.02175436475174414</v>
       </c>
       <c r="X12">
-        <v>0.02017858842613961</v>
+        <v>0.04382140195665894</v>
       </c>
       <c r="Y12">
-        <v>0.007751913613793415</v>
+        <v>0.01807474633510841</v>
       </c>
       <c r="Z12">
-        <v>0.02800627310946847</v>
+        <v>0.06003947355659511</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -10387,79 +10387,79 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.01196945698212627</v>
+        <v>0.03354037543641955</v>
       </c>
       <c r="C13">
-        <v>0.01196945698212627</v>
+        <v>0.03354037543641955</v>
       </c>
       <c r="D13">
-        <v>0.03130295971538929</v>
+        <v>0.03870400351310675</v>
       </c>
       <c r="E13">
-        <v>0.01919625068410472</v>
+        <v>0.02947425438539025</v>
       </c>
       <c r="F13">
-        <v>0.01293087564408779</v>
+        <v>0.03047175146639347</v>
       </c>
       <c r="G13">
-        <v>0.01919625068410472</v>
+        <v>0.02947425438539025</v>
       </c>
       <c r="H13">
-        <v>0.01188813658534346</v>
+        <v>0.03338500308365264</v>
       </c>
       <c r="I13">
-        <v>0.01500210517244566</v>
+        <v>0.03209742621495732</v>
       </c>
       <c r="J13">
-        <v>0.01314275339245796</v>
+        <v>0.02935333549976349</v>
       </c>
       <c r="K13">
-        <v>0.01633259531840638</v>
+        <v>0.04000392616541916</v>
       </c>
       <c r="L13">
-        <v>0.01719319927542117</v>
+        <v>0.04241547915929746</v>
       </c>
       <c r="M13">
-        <v>0.0148878818606639</v>
+        <v>0.03595560285024377</v>
       </c>
       <c r="N13">
-        <v>0.01927827868170733</v>
+        <v>0.0482582125603211</v>
       </c>
       <c r="O13">
-        <v>0.01325524792830206</v>
+        <v>0.03138069564071665</v>
       </c>
       <c r="P13">
-        <v>0.02332874292445842</v>
+        <v>0.05960827560800423</v>
       </c>
       <c r="Q13">
-        <v>0.01163697734431877</v>
+        <v>0.02684603688171322</v>
       </c>
       <c r="R13">
-        <v>0.03920263677415252</v>
+        <v>0.1040895215117789</v>
       </c>
       <c r="S13">
-        <v>0.01859832783687781</v>
+        <v>0.03772991859608723</v>
       </c>
       <c r="T13">
-        <v>0.01997853826106478</v>
+        <v>0.03984911748639655</v>
       </c>
       <c r="U13">
-        <v>0.01628134037930662</v>
+        <v>0.03417237609177102</v>
       </c>
       <c r="V13">
-        <v>0.02332252513023546</v>
+        <v>0.04498353260033097</v>
       </c>
       <c r="W13">
-        <v>0.01366297178599503</v>
+        <v>0.03015208779360423</v>
       </c>
       <c r="X13">
-        <v>0.02981853636173578</v>
+        <v>0.05495762028434593</v>
       </c>
       <c r="Y13">
-        <v>0.01106763869350436</v>
+        <v>0.02616716860069991</v>
       </c>
       <c r="Z13">
-        <v>0.05527660401899264</v>
+        <v>0.09404637645024616</v>
       </c>
     </row>
     <row r="14" spans="1:26">
